--- a/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
+++ b/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16620" windowHeight="8310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16620" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="428">
   <si>
     <r>
       <t xml:space="preserve">Test Item
@@ -404,14 +404,6 @@
   </si>
   <si>
     <t>audio_codec_mixer_micin_mixerin_dacout_and_micin_adcin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audio_codec_pressure_longcapturing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audio_codec_pressure_longplaying</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1190,6 +1182,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AUDIO_CODEC_FUNCTION_2</t>
+  </si>
+  <si>
     <t>AUDIO_CODEC_FUNCTION_3</t>
   </si>
   <si>
@@ -2043,6 +2038,44 @@
   </si>
   <si>
     <t>audio_codec_play_stereo_mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_02</t>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_03</t>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_04</t>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_05</t>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_06</t>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_07</t>
+  </si>
+  <si>
+    <t>audio_codec_play_capture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证一边播放各个频率单双声道, 一边录音的正确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_codec_stress_longplaying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_codec_stress_longcapturing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2625,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2639,18 +2672,18 @@
     </row>
     <row r="2" spans="1:7" ht="50.1" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
@@ -2658,54 +2691,54 @@
     </row>
     <row r="3" spans="1:7" ht="50.1" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="65.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>49</v>
@@ -2713,18 +2746,18 @@
     </row>
     <row r="6" spans="1:7" ht="50.1" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -2732,18 +2765,18 @@
     </row>
     <row r="7" spans="1:7" ht="50.1" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>13</v>
@@ -2751,18 +2784,18 @@
     </row>
     <row r="8" spans="1:7" ht="50.1" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
@@ -2770,20 +2803,20 @@
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
@@ -2791,31 +2824,31 @@
     </row>
     <row r="10" spans="1:7" ht="50.1" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="50.1" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -2825,14 +2858,14 @@
     </row>
     <row r="12" spans="1:7" ht="50.1" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -2842,14 +2875,14 @@
     </row>
     <row r="13" spans="1:7" ht="50.1" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
@@ -2859,14 +2892,14 @@
     </row>
     <row r="14" spans="1:7" ht="50.1" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
@@ -2876,14 +2909,14 @@
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
@@ -2893,14 +2926,14 @@
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
@@ -2910,14 +2943,14 @@
     </row>
     <row r="17" spans="1:7" ht="50.1" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
@@ -2927,14 +2960,14 @@
     </row>
     <row r="18" spans="1:7" ht="50.1" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
@@ -2944,14 +2977,14 @@
     </row>
     <row r="19" spans="1:7" ht="50.1" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
@@ -2971,196 +3004,196 @@
     <row r="21" spans="1:7" ht="50.1" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="50.1" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="50.1" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="50.1" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="50.1" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="50.1" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="50.1" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="50.1" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="50.1" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="50.1" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="56.25" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="84.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="84.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="50.1" customHeight="1">
@@ -3172,7 +3205,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
@@ -3187,7 +3220,7 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3202,7 +3235,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
@@ -3217,7 +3250,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="3"/>
@@ -3232,7 +3265,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="3"/>
@@ -3247,7 +3280,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="3"/>
@@ -3262,7 +3295,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="3"/>
@@ -3277,7 +3310,7 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="3"/>
@@ -3285,420 +3318,420 @@
     </row>
     <row r="42" spans="1:7" ht="50.1" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="50.1" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="50.1" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="50.1" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="50.1" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="50.1" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="52.5" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="50.1" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="50.1" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="50.1" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="50.1" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="50.1" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="50.1" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="50.1" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="50.1" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="50.1" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="50.1" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="50.1" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="50.1" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="50.1" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="50.1" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="50.1" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="50.1" customHeight="1">
@@ -3726,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3752,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3766,59 +3799,67 @@
     </row>
     <row r="2" spans="1:7" ht="78" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>417</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="78" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="59.25" customHeight="1">
+    <row r="4" spans="1:7" ht="54" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1">
+    <row r="5" spans="1:7" ht="59.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3826,16 +3867,16 @@
     </row>
     <row r="6" spans="1:7" ht="63.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3843,33 +3884,33 @@
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="55.5" customHeight="1">
+    <row r="8" spans="1:7" ht="42" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3877,16 +3918,16 @@
     </row>
     <row r="9" spans="1:7" ht="75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3894,16 +3935,16 @@
     </row>
     <row r="10" spans="1:7" ht="55.5" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3911,98 +3952,98 @@
     </row>
     <row r="11" spans="1:7" ht="103.5" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="126" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="79.5" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="78.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
@@ -4010,14 +4051,14 @@
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
@@ -4025,14 +4066,14 @@
     </row>
     <row r="17" spans="1:7" ht="50.1" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
@@ -4040,14 +4081,14 @@
     </row>
     <row r="18" spans="1:7" ht="50.1" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
@@ -4055,14 +4096,14 @@
     </row>
     <row r="19" spans="1:7" ht="50.1" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
@@ -4070,14 +4111,14 @@
     </row>
     <row r="20" spans="1:7" ht="50.1" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
@@ -4085,33 +4126,33 @@
     </row>
     <row r="21" spans="1:7" ht="50.1" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="50.1" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>426</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4119,35 +4160,35 @@
     </row>
     <row r="23" spans="1:7" ht="50.1" customHeight="1">
       <c r="A23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>427</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="50.1" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4155,16 +4196,16 @@
     </row>
     <row r="25" spans="1:7" ht="50.1" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4172,7 +4213,7 @@
     </row>
     <row r="26" spans="1:7" ht="35.25" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -4182,7 +4223,7 @@
     <mergeCell ref="A26:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
@@ -4221,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4235,560 +4276,560 @@
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="41.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="53.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="41.25" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="54" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="68.25" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="55.5" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="56.25" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="37.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="50.1" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="52.5" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="46.5" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="44.25" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="42.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="66.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="50.25" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="51.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="84" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="51.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="56.25" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="51" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="80.25" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="79.5" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -4808,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4833,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4846,7 +4887,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>417</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4855,7 +4898,9 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>418</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4864,7 +4909,9 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4873,7 +4920,9 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="53.25" customHeight="1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>420</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4882,7 +4931,9 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>421</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -4891,7 +4942,9 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>422</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4900,7 +4953,9 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>423</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5165,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5179,16 +5234,16 @@
     </row>
     <row r="2" spans="1:7" ht="78" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -5196,16 +5251,16 @@
     </row>
     <row r="3" spans="1:7" ht="63.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -5213,16 +5268,16 @@
     </row>
     <row r="4" spans="1:7" ht="59.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -5230,16 +5285,16 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -5247,16 +5302,16 @@
     </row>
     <row r="6" spans="1:7" ht="45" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5264,16 +5319,16 @@
     </row>
     <row r="7" spans="1:7" ht="75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5281,16 +5336,16 @@
     </row>
     <row r="8" spans="1:7" ht="55.5" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5298,16 +5353,16 @@
     </row>
     <row r="9" spans="1:7" ht="55.5" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -5315,16 +5370,16 @@
     </row>
     <row r="10" spans="1:7" ht="55.5" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -5498,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5512,16 +5567,16 @@
     </row>
     <row r="2" spans="1:7" ht="78" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -5529,16 +5584,16 @@
     </row>
     <row r="3" spans="1:7" ht="63.75" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -5546,16 +5601,16 @@
     </row>
     <row r="4" spans="1:7" ht="59.25" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -5563,16 +5618,16 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>

--- a/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
+++ b/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
@@ -2632,7 +2632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -3759,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
+++ b/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16620" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="425">
   <si>
     <r>
       <t xml:space="preserve">Test Item
@@ -939,32 +939,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反复进出相机  1000 times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CAMERA_STRESS_7</t>
   </si>
   <si>
     <t>CAMERA_STRESS_8</t>
   </si>
   <si>
-    <t>CAMERA_STRESS_9</t>
-  </si>
-  <si>
-    <t>前摄像头连续拍照  500 pics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后摄像头录像100 times 每次一分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前摄像头录像50 times 每次一分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAMERA_STRESS_10</t>
   </si>
   <si>
     <t>前后摄像头切换加录像 100 times 每次一分钟</t>
@@ -1124,12 +1106,6 @@
     <t xml:space="preserve">
 能过进行1-3.0x变焦，并且拍照效果正常
 </t>
-  </si>
-  <si>
-    <t>CAMERA_STRESS_11</t>
-  </si>
-  <si>
-    <t>CAMERA_STRESS_12</t>
   </si>
   <si>
     <t>CAMERA_PERFORMANCE_08</t>
@@ -1413,22 +1389,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.打开相机
-2.设置拍照模式
-3.连续拍照1000张
-</t>
-  </si>
-  <si>
-    <t>1.打开相机
-2.设置录像模式
-3.连续录制100段视频</t>
-  </si>
-  <si>
-    <t>1.打开相机
-2.设置录像模式
-3.连续录制50段视频</t>
-  </si>
-  <si>
     <t>1.打开相机
 2.设置录像模式
 3.录制视频直到自动退出</t>
@@ -1477,15 +1437,6 @@
   <si>
     <t>1.读取 scaling_available_governors
 节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.打开相机
-2.拍照
-3.切换摄像头
-4.拍照
-5.重复1000次第2~3 步
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1535,29 +1486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.打开相机
-2.设置拍照模式，拍照
-3.切换至录像模式，录像
-4.重复1000次第 2~3 步
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开相机
-2.退出相机
-3.重复1000次第 1~2 步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开相机
-2.设置录像模式
-3.录制视频
-4.切换摄像头
-5.录制视频
-6.重复100次第 4~5 步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AUDIO_CODEC_FUNCTION_9</t>
   </si>
   <si>
@@ -2076,6 +2004,72 @@
   </si>
   <si>
     <t>audio_codec_stress_longcapturing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMERA_STRESS_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.打开相机
+2.设置拍照模式
+3.拍照
+4.退出相机
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.打开相机
+2.设置拍照模式，拍照
+3.切换摄像头，到前摄像头
+4.拍照
+5.切换摄像头，回到后摄像头
+6.退出相机
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开相机
+2.设置录像模式
+3.录制视频
+4.退出相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开相机
+2.设置录像模式
+3.录制视频
+4.切换摄像头，切换到前摄像头
+5.录制视频
+6.切换摄像头，切换到后摄像头
+6.退出相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.打开相机
+2.设置拍照模式，拍照
+3.切换至录像模式，录像
+4.退出相机
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera_rear_take_pic_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera_font_rear_switch_take_pic_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera_rear_video_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera_font_rear_switch_video_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera_rear_pic_video_switch_1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2672,7 +2666,7 @@
     </row>
     <row r="2" spans="1:7" ht="50.1" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -2683,7 +2677,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
@@ -2691,7 +2685,7 @@
     </row>
     <row r="3" spans="1:7" ht="50.1" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -2702,15 +2696,15 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -2721,13 +2715,13 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="65.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -2738,7 +2732,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>49</v>
@@ -2746,7 +2740,7 @@
     </row>
     <row r="6" spans="1:7" ht="50.1" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -2757,7 +2751,7 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -2765,7 +2759,7 @@
     </row>
     <row r="7" spans="1:7" ht="50.1" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -2776,7 +2770,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>13</v>
@@ -2784,7 +2778,7 @@
     </row>
     <row r="8" spans="1:7" ht="50.1" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -2795,7 +2789,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
@@ -2803,7 +2797,7 @@
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -2816,7 +2810,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>15</v>
@@ -2824,7 +2818,7 @@
     </row>
     <row r="10" spans="1:7" ht="50.1" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
@@ -2835,13 +2829,13 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="50.1" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
@@ -2858,7 +2852,7 @@
     </row>
     <row r="12" spans="1:7" ht="50.1" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -2875,7 +2869,7 @@
     </row>
     <row r="13" spans="1:7" ht="50.1" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
@@ -2892,7 +2886,7 @@
     </row>
     <row r="14" spans="1:7" ht="50.1" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
@@ -2909,7 +2903,7 @@
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2926,7 +2920,7 @@
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
@@ -2943,7 +2937,7 @@
     </row>
     <row r="17" spans="1:7" ht="50.1" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>31</v>
@@ -2960,7 +2954,7 @@
     </row>
     <row r="18" spans="1:7" ht="50.1" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>33</v>
@@ -2977,7 +2971,7 @@
     </row>
     <row r="19" spans="1:7" ht="50.1" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>35</v>
@@ -3004,196 +2998,196 @@
     <row r="21" spans="1:7" ht="50.1" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="3" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="50.1" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="3" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="50.1" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="3" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="3" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="50.1" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="3" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="50.1" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="3" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="50.1" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="50.1" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="3" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="50.1" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="50.1" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="3" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="50.1" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="3" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="56.25" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="84.75" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="84.75" customHeight="1">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="50.1" customHeight="1">
@@ -3318,10 +3312,10 @@
     </row>
     <row r="42" spans="1:7" ht="50.1" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
@@ -3329,18 +3323,18 @@
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="50.1" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
@@ -3348,18 +3342,18 @@
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="50.1" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
@@ -3367,18 +3361,18 @@
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="3" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="50.1" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
@@ -3386,18 +3380,18 @@
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="3" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="50.1" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
@@ -3405,18 +3399,18 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="50.1" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
@@ -3424,18 +3418,18 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="52.5" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
@@ -3443,18 +3437,18 @@
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="50.1" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
@@ -3462,18 +3456,18 @@
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="3" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="50.1" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
@@ -3481,18 +3475,18 @@
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="50.1" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
@@ -3500,18 +3494,18 @@
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="50.1" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
@@ -3519,18 +3513,18 @@
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="50.1" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
@@ -3538,18 +3532,18 @@
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="3" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="50.1" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
@@ -3557,18 +3551,18 @@
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="3" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="50.1" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
@@ -3576,18 +3570,18 @@
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="3" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="50.1" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
@@ -3595,18 +3589,18 @@
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="3" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="50.1" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
@@ -3614,18 +3608,18 @@
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="3" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="50.1" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
@@ -3633,18 +3627,18 @@
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="3" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="50.1" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
@@ -3652,18 +3646,18 @@
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="3" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="50.1" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
@@ -3671,18 +3665,18 @@
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="3" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="50.1" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
@@ -3690,18 +3684,18 @@
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="50.1" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
@@ -3709,18 +3703,18 @@
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="50.1" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
@@ -3728,10 +3722,10 @@
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="50.1" customHeight="1">
@@ -3759,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3799,13 +3793,13 @@
     </row>
     <row r="2" spans="1:7" ht="78" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>66</v>
@@ -3816,13 +3810,13 @@
     </row>
     <row r="3" spans="1:7" ht="78" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>66</v>
@@ -3833,7 +3827,7 @@
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>70</v>
@@ -3850,10 +3844,10 @@
     </row>
     <row r="5" spans="1:7" ht="59.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>56</v>
@@ -3867,13 +3861,13 @@
     </row>
     <row r="6" spans="1:7" ht="63.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>66</v>
@@ -3884,7 +3878,7 @@
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>67</v>
@@ -3901,7 +3895,7 @@
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>91</v>
@@ -3918,7 +3912,7 @@
     </row>
     <row r="9" spans="1:7" ht="75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>68</v>
@@ -3935,7 +3929,7 @@
     </row>
     <row r="10" spans="1:7" ht="55.5" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>69</v>
@@ -3952,7 +3946,7 @@
     </row>
     <row r="11" spans="1:7" ht="103.5" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>72</v>
@@ -3965,7 +3959,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>74</v>
@@ -3973,7 +3967,7 @@
     </row>
     <row r="12" spans="1:7" ht="126" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>75</v>
@@ -3986,7 +3980,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>77</v>
@@ -3994,7 +3988,7 @@
     </row>
     <row r="13" spans="1:7" ht="79.5" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>78</v>
@@ -4007,7 +4001,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>80</v>
@@ -4015,7 +4009,7 @@
     </row>
     <row r="14" spans="1:7" ht="78.75" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>90</v>
@@ -4036,7 +4030,7 @@
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>84</v>
@@ -4051,7 +4045,7 @@
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>98</v>
@@ -4066,7 +4060,7 @@
     </row>
     <row r="17" spans="1:7" ht="50.1" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>99</v>
@@ -4081,7 +4075,7 @@
     </row>
     <row r="18" spans="1:7" ht="50.1" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>88</v>
@@ -4096,7 +4090,7 @@
     </row>
     <row r="19" spans="1:7" ht="50.1" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>89</v>
@@ -4111,7 +4105,7 @@
     </row>
     <row r="20" spans="1:7" ht="50.1" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>87</v>
@@ -4126,7 +4120,7 @@
     </row>
     <row r="21" spans="1:7" ht="50.1" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>85</v>
@@ -4149,7 +4143,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>66</v>
@@ -4166,7 +4160,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>66</v>
@@ -4235,10 +4229,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4276,10 +4270,10 @@
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -4287,18 +4281,18 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -4306,18 +4300,18 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="41.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -4325,18 +4319,18 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="53.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -4344,18 +4338,18 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -4363,18 +4357,18 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
@@ -4382,18 +4376,18 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="41.25" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
@@ -4401,18 +4395,18 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="54" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -4420,18 +4414,18 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="68.25" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
@@ -4439,18 +4433,18 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="55.5" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
@@ -4458,18 +4452,18 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="56.25" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
@@ -4477,18 +4471,18 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="37.5" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
@@ -4496,18 +4490,18 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
@@ -4515,18 +4509,18 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
@@ -4534,18 +4528,18 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
@@ -4553,18 +4547,18 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="50.1" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
@@ -4572,18 +4566,18 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
@@ -4591,18 +4585,18 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="52.5" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
@@ -4610,18 +4604,18 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
@@ -4629,16 +4623,16 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="46.5" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -4646,101 +4640,111 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="44.25" customHeight="1">
+    <row r="22" spans="1:7" ht="50.25" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>260</v>
+        <v>415</v>
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="42.75" customHeight="1">
+    <row r="23" spans="1:7" ht="76.5" customHeight="1">
       <c r="A23" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>421</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>260</v>
+        <v>416</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="66.75" customHeight="1">
+    <row r="24" spans="1:7" ht="50.25" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>274</v>
+        <v>417</v>
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="50.25" customHeight="1">
+    <row r="25" spans="1:7" ht="88.5" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>261</v>
+        <v>418</v>
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="51.75" customHeight="1">
+    <row r="26" spans="1:7" ht="56.25" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>424</v>
+      </c>
       <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>262</v>
+        <v>419</v>
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="84" customHeight="1">
+    <row r="27" spans="1:7" ht="51.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
@@ -4748,95 +4752,44 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="51.75" customHeight="1">
+    <row r="28" spans="1:7" ht="80.25" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="56.25" customHeight="1">
+    <row r="29" spans="1:7" ht="79.5" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="51" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="80.25" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="79.5" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D29">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4888,7 +4841,7 @@
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4899,7 +4852,7 @@
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4910,7 +4863,7 @@
     </row>
     <row r="4" spans="1:7" ht="41.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4921,7 +4874,7 @@
     </row>
     <row r="5" spans="1:7" ht="53.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4932,7 +4885,7 @@
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4943,7 +4896,7 @@
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4954,7 +4907,7 @@
     </row>
     <row r="8" spans="1:7" ht="41.25" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5234,7 +5187,7 @@
     </row>
     <row r="2" spans="1:7" ht="78" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>101</v>
@@ -5251,7 +5204,7 @@
     </row>
     <row r="3" spans="1:7" ht="63.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>103</v>
@@ -5268,7 +5221,7 @@
     </row>
     <row r="4" spans="1:7" ht="59.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>105</v>
@@ -5285,7 +5238,7 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>107</v>
@@ -5302,7 +5255,7 @@
     </row>
     <row r="6" spans="1:7" ht="45" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>109</v>
@@ -5319,7 +5272,7 @@
     </row>
     <row r="7" spans="1:7" ht="75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>111</v>
@@ -5336,7 +5289,7 @@
     </row>
     <row r="8" spans="1:7" ht="55.5" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>113</v>
@@ -5353,7 +5306,7 @@
     </row>
     <row r="9" spans="1:7" ht="55.5" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>115</v>
@@ -5370,7 +5323,7 @@
     </row>
     <row r="10" spans="1:7" ht="55.5" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>117</v>
@@ -5528,7 +5481,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
+++ b/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="3" r:id="rId1"/>
     <sheet name="Audio" sheetId="4" r:id="rId2"/>
     <sheet name="CAMERA" sheetId="7" r:id="rId3"/>
-    <sheet name="通信" sheetId="8" r:id="rId4"/>
+    <sheet name="DMA" sheetId="9" r:id="rId4"/>
     <sheet name="ION" sheetId="5" r:id="rId5"/>
     <sheet name="RTC" sheetId="6" r:id="rId6"/>
+    <sheet name="wifi" sheetId="10" r:id="rId7"/>
+    <sheet name="通信" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="438">
   <si>
     <r>
       <t xml:space="preserve">Test Item
@@ -2070,6 +2072,52 @@
   </si>
   <si>
     <t>camera_rear_pic_video_switch_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DMA_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DMA_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>dma_memcpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dma_memcpy_sg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dma_ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dma_stress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI_STRESS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI_STRESS_2</t>
+  </si>
+  <si>
+    <t>WIFI_STRESS_3</t>
+  </si>
+  <si>
+    <t>WIFI_STRESS_4</t>
+  </si>
+  <si>
+    <t>wifi反复开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2626,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3753,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4231,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4800,19 +4848,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
     <col min="7" max="7" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4839,54 +4887,68 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1">
+    <row r="2" spans="1:7" ht="78" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+    <row r="3" spans="1:7" ht="63.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="41.25" customHeight="1">
+    <row r="4" spans="1:7" ht="59.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="53.25" customHeight="1">
+    <row r="5" spans="1:7" ht="54" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>407</v>
-      </c>
+    <row r="6" spans="1:7" ht="45" customHeight="1">
+      <c r="A6" s="7"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -4894,10 +4956,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>408</v>
-      </c>
+    <row r="7" spans="1:7" ht="75" customHeight="1">
+      <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4905,10 +4965,8 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>409</v>
-      </c>
+    <row r="8" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A8" s="7"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4916,7 +4974,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="54" customHeight="1">
+    <row r="9" spans="1:7" ht="55.5" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4925,62 +4983,62 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="68.25" customHeight="1">
+    <row r="10" spans="1:7" ht="55.5" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4988,8 +5046,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:7" ht="87" customHeight="1">
+      <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4997,8 +5055,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="51" customHeight="1">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -5006,8 +5064,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5015,8 +5073,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5024,8 +5082,8 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5033,109 +5091,37 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="66.75" customHeight="1">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="84" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="51" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="80.25" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="79.5" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5767,4 +5753,628 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="78" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="59.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="54" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="75" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="87" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="53.25" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="54" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="51" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="50.25" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="84" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="51" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="80.25" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="79.5" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
+++ b/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
@@ -10,18 +10,20 @@
     <sheet name="CPU" sheetId="3" r:id="rId1"/>
     <sheet name="Audio" sheetId="4" r:id="rId2"/>
     <sheet name="CAMERA" sheetId="7" r:id="rId3"/>
-    <sheet name="DMA" sheetId="9" r:id="rId4"/>
-    <sheet name="ION" sheetId="5" r:id="rId5"/>
-    <sheet name="RTC" sheetId="6" r:id="rId6"/>
-    <sheet name="wifi" sheetId="10" r:id="rId7"/>
-    <sheet name="通信" sheetId="8" r:id="rId8"/>
+    <sheet name="wifi" sheetId="10" r:id="rId4"/>
+    <sheet name="通信" sheetId="8" r:id="rId5"/>
+    <sheet name="DMA" sheetId="9" r:id="rId6"/>
+    <sheet name="Pinctrl" sheetId="12" r:id="rId7"/>
+    <sheet name="ION" sheetId="5" r:id="rId8"/>
+    <sheet name="RTC" sheetId="6" r:id="rId9"/>
+    <sheet name="linux测试工具" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="511">
   <si>
     <r>
       <t xml:space="preserve">Test Item
@@ -1981,18 +1983,6 @@
     <t>2G/3G_FUNCTION_03</t>
   </si>
   <si>
-    <t>2G/3G_FUNCTION_04</t>
-  </si>
-  <si>
-    <t>2G/3G_FUNCTION_05</t>
-  </si>
-  <si>
-    <t>2G/3G_FUNCTION_06</t>
-  </si>
-  <si>
-    <t>2G/3G_FUNCTION_07</t>
-  </si>
-  <si>
     <t>audio_codec_play_capture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2117,8 +2107,268 @@
     <t>WIFI_STRESS_4</t>
   </si>
   <si>
+    <t>来电接听
+来电拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复进入飞行模式1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨打电话10086，1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启飞行模式，功耗应进入飞行模式标准功耗，Wifi、BT、2G/3G等应关闭；
+关闭飞行模式，原来打开的各项网络应自动恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装入SIM卡
+打开wifi
+打开BT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>wifi反复开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>pinctrl request device all pin resource test</t>
+  </si>
+  <si>
+    <t>pinctrl repeat request device all pin resource test</t>
+  </si>
+  <si>
+    <t>pin mux setting test</t>
+  </si>
+  <si>
+    <t>pin data setting test</t>
+  </si>
+  <si>
+    <t>pin pull setting test</t>
+  </si>
+  <si>
+    <t>pin driverlevel setting test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pinctrl request gpio test</t>
+  </si>
+  <si>
+    <t>pinctrl free gpio test</t>
+  </si>
+  <si>
+    <t>pinctrl driver set gpio direction input api test</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_12</t>
+  </si>
+  <si>
+    <t>pinctrl driver set gpio direction output api test</t>
+  </si>
+  <si>
+    <t>get pinctrl handle test</t>
+  </si>
+  <si>
+    <t>free pinctrl handle test</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_13</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_14</t>
+  </si>
+  <si>
+    <t>pinctrl lookup state test</t>
+  </si>
+  <si>
+    <t>pinctrl select state test</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_15</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_16</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_17</t>
+  </si>
+  <si>
+    <t>devm pinctrl get and put api test</t>
+  </si>
+  <si>
+    <t>gpio request and free api(from gpio driver) test</t>
+  </si>
+  <si>
+    <t>gpio repeat request gpio(from gpio driver) test</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_18</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_19</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_20</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_21</t>
+  </si>
+  <si>
+    <t>gpiolib api test</t>
+  </si>
+  <si>
+    <t>gpiolib set debounce api test</t>
+  </si>
+  <si>
+    <t>pin request irq test</t>
+  </si>
+  <si>
+    <t>pin repeat request irq test</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_22</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_23</t>
+  </si>
+  <si>
+    <t>scripts api test</t>
+  </si>
+  <si>
+    <t>IOZONE_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIO_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMTESTER_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLICTEST_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统I/O测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件系统测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核实时性测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BONNIE++_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘I/O测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPUFREQBECH_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPUFREQBECH_02</t>
+  </si>
+  <si>
+    <t>CPUFREQBECH_03</t>
+  </si>
+  <si>
+    <t>CPUFREQBECH_04</t>
+  </si>
+  <si>
+    <t>调频策略测试 ondemand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调频策略测试 interactive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调频策略测试 conservative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调频策略测试 fantasys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iozone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fio</t>
+  </si>
+  <si>
+    <t>memtester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonnie++ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyclictest  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpufreqbench_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpufreqbench_02</t>
+  </si>
+  <si>
+    <t>cpufreqbench_03</t>
+  </si>
+  <si>
+    <t>cpufreqbench_04</t>
   </si>
 </sst>
 </file>
@@ -2674,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3797,12 +4047,227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="53.25" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="54" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3861,10 +4326,10 @@
         <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>66</v>
@@ -4191,7 +4656,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>66</v>
@@ -4208,7 +4673,7 @@
         <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>66</v>
@@ -4279,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4700,14 +5165,14 @@
         <v>137</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -4719,33 +5184,33 @@
         <v>138</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="50.25" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -4757,18 +5222,18 @@
         <v>142</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="56.25" customHeight="1">
+    <row r="26" spans="1:7" ht="51" customHeight="1">
       <c r="A26" s="8" t="s">
         <v>135</v>
       </c>
@@ -4776,18 +5241,18 @@
         <v>144</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="51.75" customHeight="1">
+    <row r="27" spans="1:7" ht="48" customHeight="1">
       <c r="A27" s="8" t="s">
         <v>136</v>
       </c>
@@ -4847,6 +5312,636 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="78" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="59.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="54" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="75" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="87" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="53.25" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="54" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="51" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="50.25" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="84" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="51" customHeight="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="80.25" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="79.5" customHeight="1">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -4889,11 +5984,11 @@
     </row>
     <row r="2" spans="1:7" ht="78" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>66</v>
@@ -4904,11 +5999,11 @@
     </row>
     <row r="3" spans="1:7" ht="63.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>66</v>
@@ -4919,11 +6014,11 @@
     </row>
     <row r="4" spans="1:7" ht="59.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>66</v>
@@ -4934,11 +6029,11 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>66</v>
@@ -4985,631 +6080,6 @@
     </row>
     <row r="10" spans="1:7" ht="55.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="68.25" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="87" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
-      <formula1>"Automatic,Manual"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="32.375" customWidth="1"/>
-    <col min="7" max="7" width="40.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="28.5">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="78" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="59.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="68.25" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="87" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
-      <formula1>"Automatic,Manual"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="33.5" customWidth="1"/>
-    <col min="7" max="7" width="43.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="28.5">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="78" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="59.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5760,7 +6230,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5798,10 +6268,10 @@
     </row>
     <row r="2" spans="1:7" ht="78" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
@@ -5813,9 +6283,11 @@
     </row>
     <row r="3" spans="1:7" ht="63.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>440</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>66</v>
@@ -5826,9 +6298,11 @@
     </row>
     <row r="4" spans="1:7" ht="59.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>441</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>66</v>
@@ -5839,9 +6313,11 @@
     </row>
     <row r="5" spans="1:7" ht="54" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>442</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
         <v>66</v>
@@ -5851,53 +6327,87 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="45" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>453</v>
+      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>454</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>455</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>460</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -5905,8 +6415,12 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -5914,8 +6428,12 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>462</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -5923,8 +6441,12 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>465</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -5932,8 +6454,12 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>466</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -5941,8 +6467,12 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="68.25" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
@@ -5950,8 +6480,12 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="87" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
@@ -5959,8 +6493,12 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
@@ -5968,8 +6506,12 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -5977,8 +6519,12 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
@@ -5986,8 +6532,12 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -5995,8 +6545,12 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
@@ -6004,8 +6558,12 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -6013,7 +6571,9 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="7" t="s">
+        <v>482</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6035,19 +6595,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
     <col min="7" max="7" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6074,54 +6634,409 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1">
+    <row r="2" spans="1:7" ht="78" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+    <row r="3" spans="1:7" ht="63.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="41.25" customHeight="1">
+    <row r="4" spans="1:7" ht="59.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="53.25" customHeight="1">
+    <row r="5" spans="1:7" ht="54" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="54.75" customHeight="1">
+    <row r="6" spans="1:7" ht="45" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>407</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="75" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="87" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="43.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="78" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="63.75" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="59.25" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="54" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" customHeight="1">
+      <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -6129,10 +7044,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>408</v>
-      </c>
+    <row r="7" spans="1:7" ht="75" customHeight="1">
+      <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6140,10 +7053,8 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>409</v>
-      </c>
+    <row r="8" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6151,8 +7062,8 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="54" customHeight="1">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6160,62 +7071,62 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="68.25" customHeight="1">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6223,8 +7134,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:7" ht="87" customHeight="1">
+      <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -6232,8 +7143,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="51" customHeight="1">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6241,8 +7152,8 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6250,8 +7161,8 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -6259,8 +7170,8 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6268,109 +7179,37 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="66.75" customHeight="1">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="84" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="51" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="80.25" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="79.5" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>

--- a/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
+++ b/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
@@ -4,27 +4,35 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="8310" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="3" r:id="rId1"/>
     <sheet name="Audio" sheetId="4" r:id="rId2"/>
     <sheet name="CAMERA" sheetId="7" r:id="rId3"/>
-    <sheet name="wifi" sheetId="10" r:id="rId4"/>
-    <sheet name="通信" sheetId="8" r:id="rId5"/>
-    <sheet name="DMA" sheetId="9" r:id="rId6"/>
-    <sheet name="Pinctrl" sheetId="12" r:id="rId7"/>
-    <sheet name="UART" sheetId="14" r:id="rId8"/>
-    <sheet name="ION" sheetId="5" r:id="rId9"/>
-    <sheet name="RTC" sheetId="6" r:id="rId10"/>
-    <sheet name="linux开源测试工具" sheetId="13" r:id="rId11"/>
+    <sheet name="Display" sheetId="21" r:id="rId4"/>
+    <sheet name="wifi" sheetId="10" r:id="rId5"/>
+    <sheet name="通信" sheetId="8" r:id="rId6"/>
+    <sheet name="DMA" sheetId="9" r:id="rId7"/>
+    <sheet name="Pinctrl" sheetId="12" r:id="rId8"/>
+    <sheet name="INPUT" sheetId="16" r:id="rId9"/>
+    <sheet name="UART" sheetId="14" r:id="rId10"/>
+    <sheet name="CCU" sheetId="22" r:id="rId11"/>
+    <sheet name="ARISC" sheetId="24" r:id="rId12"/>
+    <sheet name="SPI" sheetId="26" r:id="rId13"/>
+    <sheet name="TWI" sheetId="25" r:id="rId14"/>
+    <sheet name="CSI" sheetId="19" r:id="rId15"/>
+    <sheet name="ION" sheetId="5" r:id="rId16"/>
+    <sheet name="PMU" sheetId="23" r:id="rId17"/>
+    <sheet name="RTC" sheetId="6" r:id="rId18"/>
+    <sheet name="linux开源测试工具" sheetId="13" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="725">
   <si>
     <r>
       <t xml:space="preserve">Test Item
@@ -987,9 +995,6 @@
     <t>CPU_FUNCTION_7</t>
   </si>
   <si>
-    <t>CPU_FUNCTION_8</t>
-  </si>
-  <si>
     <t>CPU_FUNCTION_9</t>
   </si>
   <si>
@@ -1294,9 +1299,6 @@
     <t>AUDIO_CODEC_FUNCTION_18</t>
   </si>
   <si>
-    <t>AUDIO_CODEC_FUNCTION_19</t>
-  </si>
-  <si>
     <t>AUDIO_CODEC_PERFORMANCE_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,14 +1697,6 @@
   </si>
   <si>
     <t>2G/3G_FUNCTION_03</t>
-  </si>
-  <si>
-    <t>audio_codec_play_capture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证一边播放各个频率单双声道, 一边录音的正确性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>audio_codec_stress_longplaying</t>
@@ -2209,6 +2203,759 @@
 2. cat /sys/class/regulator/regulator.15/microvolts
 结果为sys_config中dvfs_table条目下8组CPU频率对应电压
 3. 测量实际板子VDD-CPU电压与步骤2中数值偏差低于0.03V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸屏单点校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸屏多点校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸屏长按校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸屏手势校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>TP_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>TP_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>TP_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>按键基本函数测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单机按键测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按按键测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸屏反应速度测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>csi_compatibility</t>
+  </si>
+  <si>
+    <t>csi_stress_longcapturing</t>
+  </si>
+  <si>
+    <t>csi_video</t>
+  </si>
+  <si>
+    <t>csi_picture</t>
+  </si>
+  <si>
+    <t>csi_regulate_exposure</t>
+  </si>
+  <si>
+    <t>csi_regulate_hflip</t>
+  </si>
+  <si>
+    <t>csi_regulate_vflip</t>
+  </si>
+  <si>
+    <t>csi_regulate_white_balance</t>
+  </si>
+  <si>
+    <t>csi_regulate_colorfx</t>
+  </si>
+  <si>
+    <t>csi_regulate_af</t>
+  </si>
+  <si>
+    <t>csi_switch</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>DISPLAY_FB_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_FB_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_FB_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_FB_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>display_be_colorkey</t>
+  </si>
+  <si>
+    <t>display_be_cursor</t>
+  </si>
+  <si>
+    <t>display_be_layer_priority</t>
+  </si>
+  <si>
+    <t>display_be_layer_request_test</t>
+  </si>
+  <si>
+    <t>display_be_source_window</t>
+  </si>
+  <si>
+    <t>display_be_video</t>
+  </si>
+  <si>
+    <t>display_be_alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_be_back_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>display_fb_blank</t>
+  </si>
+  <si>
+    <t>display_fb_mode</t>
+  </si>
+  <si>
+    <t>display_fb_pan</t>
+  </si>
+  <si>
+    <t>display_fb_putvarinfo</t>
+  </si>
+  <si>
+    <t>display_fe_3d_hdmi</t>
+  </si>
+  <si>
+    <t>display_fe_3d_lcd</t>
+  </si>
+  <si>
+    <t>display_fe_capture</t>
+  </si>
+  <si>
+    <t>display_fe_interlace</t>
+  </si>
+  <si>
+    <t>display_fe_scale_updown</t>
+  </si>
+  <si>
+    <t>display_fe_size_020</t>
+  </si>
+  <si>
+    <t>display_fe_size_150</t>
+  </si>
+  <si>
+    <t>display_fe_size_220</t>
+  </si>
+  <si>
+    <t>display_fe_size_620</t>
+  </si>
+  <si>
+    <t>display_fe_writeback</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>display_enhance_composite</t>
+  </si>
+  <si>
+    <t>display_enhance_deu</t>
+  </si>
+  <si>
+    <t>display_enhance_drc</t>
+  </si>
+  <si>
+    <t>display_enhance_layer_enhance</t>
+  </si>
+  <si>
+    <t>display_enhance_screen_enhance</t>
+  </si>
+  <si>
+    <t>DISPLAY_ENHANCE_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_ENHANCE_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_ENHANCE_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_ENHANCE_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_ENHANCE_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>display_output_hdmi_hpd</t>
+  </si>
+  <si>
+    <t>display_output_hdmi_mode</t>
+  </si>
+  <si>
+    <t>display_output_hdmi_open_close</t>
+  </si>
+  <si>
+    <t>display_output_lcd0+hdmi1</t>
+  </si>
+  <si>
+    <t>display_output_lcd0+lcd1</t>
+  </si>
+  <si>
+    <t>display_output_lcd_backlight</t>
+  </si>
+  <si>
+    <t>display_output_lcd_gamma</t>
+  </si>
+  <si>
+    <t>display_output_lcd_open_close</t>
+  </si>
+  <si>
+    <t>display_output_lcd_source</t>
+  </si>
+  <si>
+    <t>display_output_switch</t>
+  </si>
+  <si>
+    <t>display_output_tv_hpd</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>display_layer_alpha</t>
+  </si>
+  <si>
+    <t>display_layer_format2</t>
+  </si>
+  <si>
+    <t>display_layer_format_3d_hdmi</t>
+  </si>
+  <si>
+    <t>display_layer_format_3d_lcd</t>
+  </si>
+  <si>
+    <t>display_layer_format3</t>
+  </si>
+  <si>
+    <t>display_layer_format</t>
+  </si>
+  <si>
+    <t>display_layer_frame</t>
+  </si>
+  <si>
+    <t>display_layer_premultiply</t>
+  </si>
+  <si>
+    <t>display_layer_scal</t>
+  </si>
+  <si>
+    <t>display_layer_stress2</t>
+  </si>
+  <si>
+    <t>display_layer_stress3</t>
+  </si>
+  <si>
+    <t>display_layer_stress_ready</t>
+  </si>
+  <si>
+    <t>display_layer_stress</t>
+  </si>
+  <si>
+    <t>display_layer_zorder</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_12</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_13</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_14</t>
+  </si>
+  <si>
+    <t>display_smart_backlight</t>
+  </si>
+  <si>
+    <t>display_smart_color</t>
+  </si>
+  <si>
+    <t>display_uevent</t>
+  </si>
+  <si>
+    <t>display_lcd</t>
+  </si>
+  <si>
+    <t>display_set_env</t>
+  </si>
+  <si>
+    <t>display_cursor</t>
+  </si>
+  <si>
+    <t>display_hdmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_standby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_stress_bandwidth</t>
+  </si>
+  <si>
+    <t>display_stress_layer_quick_request_release</t>
+  </si>
+  <si>
+    <t>DISPLAY_STRESS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>DISPLAY_STRESS_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>ccu_clksim_gatetest</t>
+  </si>
+  <si>
+    <t>ccu_clksim_ratetest</t>
+  </si>
+  <si>
+    <t>ccu_clk_function_modclk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccu_clk_pressure_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccu_clk_function_gateclk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccu_dump_compare_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmu_ldo_test_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldo dcdc test for evb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>arisc_axptest.sh</t>
+  </si>
+  <si>
+    <t>arisc_dvfstest.sh</t>
+  </si>
+  <si>
+    <t>arisc_estandbytest.sh</t>
+  </si>
+  <si>
+    <t>arisc_fstandbytest.sh</t>
+  </si>
+  <si>
+    <t>arisc_interfacetest.sh</t>
+  </si>
+  <si>
+    <t>arisc_messagetest.sh</t>
+  </si>
+  <si>
+    <t>arisc_presstest.sh</t>
+  </si>
+  <si>
+    <t>arisc_sstandbytest.sh</t>
+  </si>
+  <si>
+    <t>arisc_standby_sence.sh</t>
+  </si>
+  <si>
+    <t>arisc_standby.sh</t>
+  </si>
+  <si>
+    <t>TWI_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twi_host_gsensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twi_host_eeprom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test TWI driver by EEPROM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read the coordinate from Gsensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>KEY_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>GSENSOR_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gsensor 校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpus standby test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpus_standby_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpus extended standby test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpus_standby_extended_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu hotplug test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvfs_cpu_hotplug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu max power test based on fantasys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvfs_cpu_max_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu pulse event test based on fantasys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvfs_cpu_pulse_event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram setfreq/getfreq test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvfs_dram_freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram setfreq/getfreq time test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvfs_dram_freq_perf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi: R/W test by NorFlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi_data_transfer_mtd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_14</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_15</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_16</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_17</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_18</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_19</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_20</t>
+  </si>
+  <si>
+    <t>已连接有可用wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT反复开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2464,9 +3211,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFFCC99"/>
-      <color rgb="FFCCFFFF"/>
       <color rgb="FFBCF8B2"/>
       <color rgb="FFAEF6A2"/>
     </mruColors>
@@ -2759,17 +3506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="47" customWidth="1"/>
@@ -2799,14 +3546,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
@@ -2814,29 +3563,33 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>703</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2844,14 +3597,16 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>704</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>705</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
@@ -2859,14 +3614,16 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>707</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
@@ -2874,14 +3631,16 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>708</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>709</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
@@ -2889,14 +3648,16 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>711</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
@@ -2904,179 +3665,141 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="50.1" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>496</v>
+      <c r="A11" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="84.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>171</v>
+        <v>33</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>334</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>172</v>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>327</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>173</v>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>328</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>174</v>
+      <c r="A15" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>335</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>175</v>
+      <c r="A16" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>329</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>176</v>
+      <c r="A17" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>347</v>
-      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>177</v>
+      <c r="A18" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -3084,18 +3807,18 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="50.1" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>178</v>
+        <v>715</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -3103,18 +3826,18 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="50.1" customHeight="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="84.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
@@ -3122,18 +3845,18 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="50.1" customHeight="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
@@ -3141,18 +3864,18 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="50.1" customHeight="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="55.5" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
@@ -3160,18 +3883,18 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="50.1" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
@@ -3179,18 +3902,18 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>228</v>
+      <c r="A24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -3198,18 +3921,18 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>236</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>229</v>
+      <c r="A25" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
@@ -3217,18 +3940,18 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>233</v>
+        <v>344</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>236</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>230</v>
+      <c r="A26" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
@@ -3236,18 +3959,18 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>231</v>
+      <c r="A27" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -3255,18 +3978,18 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>235</v>
+        <v>344</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>261</v>
+      <c r="A28" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -3274,18 +3997,18 @@
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>252</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -3293,18 +4016,18 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>253</v>
+      <c r="A30" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -3312,18 +4035,18 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>254</v>
+      <c r="A31" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
@@ -3331,18 +4054,18 @@
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="50.1" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -3350,18 +4073,18 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="50.1" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
@@ -3369,18 +4092,18 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="50.1" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -3388,18 +4111,18 @@
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="50.1" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -3407,18 +4130,18 @@
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="50.1" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
@@ -3426,18 +4149,18 @@
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="50.1" customHeight="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="52.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
@@ -3445,18 +4168,18 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="50.1" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
@@ -3464,18 +4187,18 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="50.1" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
@@ -3483,18 +4206,18 @@
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="50.1" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
@@ -3502,18 +4225,18 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="50.1" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
@@ -3521,18 +4244,18 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="50.1" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -3540,18 +4263,18 @@
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="50.1" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
@@ -3559,18 +4282,18 @@
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="50.1" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
@@ -3578,25 +4301,177 @@
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A53" s="5"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D53">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3606,6 +4481,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="43.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3727,12 +5950,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3770,13 +5993,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -3787,13 +6010,13 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -3804,13 +6027,13 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -3821,13 +6044,13 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -3838,13 +6061,13 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -3855,13 +6078,13 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -3872,11 +6095,13 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -3887,13 +6112,13 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -3904,13 +6129,13 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -3921,51 +6146,40 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>451</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3976,10 +6190,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4021,10 +6235,10 @@
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -4033,15 +6247,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="63.75" customHeight="1">
+    <row r="3" spans="1:7" ht="54" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>357</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -4050,15 +6264,15 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="54" customHeight="1">
+    <row r="4" spans="1:7" ht="61.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -4072,7 +6286,7 @@
         <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -4084,15 +6298,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="61.5" customHeight="1">
+    <row r="6" spans="1:7" ht="45" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -4101,15 +6315,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1">
+    <row r="7" spans="1:7" ht="42" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -4118,15 +6332,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1">
+    <row r="8" spans="1:7" ht="75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -4135,15 +6349,15 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="75" customHeight="1">
+    <row r="9" spans="1:7" ht="55.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -4152,32 +6366,36 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="55.5" customHeight="1">
+    <row r="10" spans="1:7" ht="103.5" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="103.5" customHeight="1">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="126" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -4187,18 +6405,18 @@
         <v>217</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="126" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="79.5" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
@@ -4208,57 +6426,51 @@
         <v>218</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="79.5" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="78.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="78.75" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="50.1" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="50.1" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -4270,10 +6482,10 @@
     </row>
     <row r="16" spans="1:7" ht="50.1" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -4285,10 +6497,10 @@
     </row>
     <row r="17" spans="1:7" ht="50.1" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -4300,10 +6512,10 @@
     </row>
     <row r="18" spans="1:7" ht="50.1" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -4315,10 +6527,10 @@
     </row>
     <row r="19" spans="1:7" ht="50.1" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
@@ -4329,11 +6541,11 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>246</v>
+      <c r="A20" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
@@ -4341,70 +6553,72 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>247</v>
+      <c r="A21" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="50.1" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="50.1" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="50.1" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>33</v>
@@ -4413,37 +6627,20 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A26" s="8" t="s">
+    <row r="25" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4495,7 +6692,7 @@
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>112</v>
@@ -4506,7 +6703,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>121</v>
@@ -4514,7 +6711,7 @@
     </row>
     <row r="3" spans="1:7" ht="41.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>113</v>
@@ -4525,7 +6722,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>122</v>
@@ -4533,7 +6730,7 @@
     </row>
     <row r="4" spans="1:7" ht="41.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>130</v>
@@ -4544,7 +6741,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>123</v>
@@ -4552,7 +6749,7 @@
     </row>
     <row r="5" spans="1:7" ht="53.25" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>114</v>
@@ -4563,7 +6760,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>124</v>
@@ -4571,7 +6768,7 @@
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>115</v>
@@ -4582,7 +6779,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>124</v>
@@ -4590,7 +6787,7 @@
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>116</v>
@@ -4601,7 +6798,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>125</v>
@@ -4609,7 +6806,7 @@
     </row>
     <row r="8" spans="1:7" ht="41.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>117</v>
@@ -4620,7 +6817,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>126</v>
@@ -4628,7 +6825,7 @@
     </row>
     <row r="9" spans="1:7" ht="54" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>118</v>
@@ -4639,7 +6836,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>127</v>
@@ -4647,7 +6844,7 @@
     </row>
     <row r="10" spans="1:7" ht="68.25" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>119</v>
@@ -4658,7 +6855,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>128</v>
@@ -4666,7 +6863,7 @@
     </row>
     <row r="11" spans="1:7" ht="55.5" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>120</v>
@@ -4677,7 +6874,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>129</v>
@@ -4685,7 +6882,7 @@
     </row>
     <row r="12" spans="1:7" ht="56.25" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>131</v>
@@ -4696,7 +6893,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>132</v>
@@ -4715,7 +6912,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>145</v>
@@ -4734,7 +6931,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>144</v>
@@ -4753,7 +6950,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>146</v>
@@ -4764,7 +6961,7 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
@@ -4772,7 +6969,7 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>146</v>
@@ -4783,7 +6980,7 @@
         <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
@@ -4791,7 +6988,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>146</v>
@@ -4810,7 +7007,7 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>147</v>
@@ -4829,7 +7026,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>148</v>
@@ -4848,7 +7045,7 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -4865,7 +7062,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -4877,14 +7074,14 @@
         <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -4896,33 +7093,33 @@
         <v>105</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="50.25" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -4934,14 +7131,14 @@
         <v>109</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -4953,14 +7150,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -4977,7 +7174,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -4992,7 +7189,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -5007,7 +7204,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G29" s="2"/>
     </row>
@@ -5025,10 +7222,1018 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A57" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A62" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A63" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A64" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A65" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A67" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A69" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A70" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A71" s="7"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D71">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5066,24 +8271,28 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>723</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>724</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -5094,7 +8303,7 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5107,7 +8316,7 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5130,12 +8339,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5173,33 +8382,33 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>507</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -5207,21 +8416,77 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5230,7 +8495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -5273,11 +8538,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -5288,11 +8553,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -5303,11 +8568,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -5318,11 +8583,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -5343,12 +8608,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5386,10 +8651,10 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -5401,10 +8666,10 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -5416,10 +8681,10 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -5431,10 +8696,10 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -5446,10 +8711,10 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -5461,10 +8726,10 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -5476,10 +8741,10 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -5491,10 +8756,10 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -5506,10 +8771,10 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -5521,176 +8786,202 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5711,300 +9002,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="33.5" customWidth="1"/>
-    <col min="7" max="7" width="43.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="28.5">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17">
-      <formula1>"Automatic,Manual"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6042,16 +9045,14 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>154</v>
+        <v>494</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -6059,16 +9060,14 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>155</v>
+        <v>499</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -6076,16 +9075,14 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>156</v>
+        <v>500</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -6093,16 +9090,14 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>157</v>
+        <v>501</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6110,50 +9105,38 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>158</v>
+        <v>502</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>160</v>
+        <v>693</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -6161,16 +9144,14 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>161</v>
+        <v>694</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -6178,25 +9159,63 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>162</v>
+        <v>695</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>

--- a/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
+++ b/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
@@ -4,35 +4,40 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="8310" tabRatio="901" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="3" r:id="rId1"/>
     <sheet name="Audio" sheetId="4" r:id="rId2"/>
     <sheet name="CAMERA" sheetId="7" r:id="rId3"/>
     <sheet name="Display" sheetId="21" r:id="rId4"/>
-    <sheet name="wifi" sheetId="10" r:id="rId5"/>
+    <sheet name="Wifi&amp;BT" sheetId="10" r:id="rId5"/>
     <sheet name="通信" sheetId="8" r:id="rId6"/>
     <sheet name="DMA" sheetId="9" r:id="rId7"/>
-    <sheet name="Pinctrl" sheetId="12" r:id="rId8"/>
-    <sheet name="INPUT" sheetId="16" r:id="rId9"/>
-    <sheet name="UART" sheetId="14" r:id="rId10"/>
-    <sheet name="CCU" sheetId="22" r:id="rId11"/>
-    <sheet name="ARISC" sheetId="24" r:id="rId12"/>
-    <sheet name="SPI" sheetId="26" r:id="rId13"/>
-    <sheet name="TWI" sheetId="25" r:id="rId14"/>
-    <sheet name="CSI" sheetId="19" r:id="rId15"/>
-    <sheet name="ION" sheetId="5" r:id="rId16"/>
-    <sheet name="PMU" sheetId="23" r:id="rId17"/>
-    <sheet name="RTC" sheetId="6" r:id="rId18"/>
-    <sheet name="linux开源测试工具" sheetId="13" r:id="rId19"/>
+    <sheet name="Nand" sheetId="27" r:id="rId8"/>
+    <sheet name="Card" sheetId="28" r:id="rId9"/>
+    <sheet name="Pinctrl" sheetId="12" r:id="rId10"/>
+    <sheet name="USB" sheetId="33" r:id="rId11"/>
+    <sheet name="DRAM" sheetId="29" r:id="rId12"/>
+    <sheet name="INPUT" sheetId="16" r:id="rId13"/>
+    <sheet name="UART" sheetId="14" r:id="rId14"/>
+    <sheet name="CCU" sheetId="22" r:id="rId15"/>
+    <sheet name="ARISC" sheetId="24" r:id="rId16"/>
+    <sheet name="SPI" sheetId="26" r:id="rId17"/>
+    <sheet name="TWI" sheetId="25" r:id="rId18"/>
+    <sheet name="CSI" sheetId="19" r:id="rId19"/>
+    <sheet name="ION" sheetId="5" r:id="rId20"/>
+    <sheet name="PMU" sheetId="23" r:id="rId21"/>
+    <sheet name="RTC" sheetId="6" r:id="rId22"/>
+    <sheet name="linux开源测试工具" sheetId="13" r:id="rId23"/>
+    <sheet name="android测试工具" sheetId="31" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="866">
   <si>
     <r>
       <t xml:space="preserve">Test Item
@@ -1815,11 +1820,6 @@
     <t>WIFI_STRESS_4</t>
   </si>
   <si>
-    <t>来电接听
-来电拒绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>反复进入飞行模式1000次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1871,34 +1871,6 @@
     <t>PINCTRL_FUNCTION_9</t>
   </si>
   <si>
-    <t>pinctrl request device all pin resource test</t>
-  </si>
-  <si>
-    <t>pinctrl repeat request device all pin resource test</t>
-  </si>
-  <si>
-    <t>pin mux setting test</t>
-  </si>
-  <si>
-    <t>pin data setting test</t>
-  </si>
-  <si>
-    <t>pin pull setting test</t>
-  </si>
-  <si>
-    <t>pin driverlevel setting test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pinctrl request gpio test</t>
-  </si>
-  <si>
-    <t>pinctrl free gpio test</t>
-  </si>
-  <si>
-    <t>pinctrl driver set gpio direction input api test</t>
-  </si>
-  <si>
     <t>PINCTRL_FUNCTION_10</t>
   </si>
   <si>
@@ -1908,27 +1880,12 @@
     <t>PINCTRL_FUNCTION_12</t>
   </si>
   <si>
-    <t>pinctrl driver set gpio direction output api test</t>
-  </si>
-  <si>
-    <t>get pinctrl handle test</t>
-  </si>
-  <si>
-    <t>free pinctrl handle test</t>
-  </si>
-  <si>
     <t>PINCTRL_FUNCTION_13</t>
   </si>
   <si>
     <t>PINCTRL_FUNCTION_14</t>
   </si>
   <si>
-    <t>pinctrl lookup state test</t>
-  </si>
-  <si>
-    <t>pinctrl select state test</t>
-  </si>
-  <si>
     <t>PINCTRL_FUNCTION_15</t>
   </si>
   <si>
@@ -1938,15 +1895,6 @@
     <t>PINCTRL_FUNCTION_17</t>
   </si>
   <si>
-    <t>devm pinctrl get and put api test</t>
-  </si>
-  <si>
-    <t>gpio request and free api(from gpio driver) test</t>
-  </si>
-  <si>
-    <t>gpio repeat request gpio(from gpio driver) test</t>
-  </si>
-  <si>
     <t>PINCTRL_FUNCTION_18</t>
   </si>
   <si>
@@ -1959,25 +1907,10 @@
     <t>PINCTRL_FUNCTION_21</t>
   </si>
   <si>
-    <t>gpiolib api test</t>
-  </si>
-  <si>
-    <t>gpiolib set debounce api test</t>
-  </si>
-  <si>
-    <t>pin request irq test</t>
-  </si>
-  <si>
-    <t>pin repeat request irq test</t>
-  </si>
-  <si>
     <t>PINCTRL_FUNCTION_22</t>
   </si>
   <si>
     <t>PINCTRL_FUNCTION_23</t>
-  </si>
-  <si>
-    <t>scripts api test</t>
   </si>
   <si>
     <t>IOZONE_01</t>
@@ -2956,6 +2889,532 @@
   </si>
   <si>
     <t>BT反复开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开wifi时待机唤醒 5000 次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络视频播放 12h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_04</t>
+  </si>
+  <si>
+    <t>反复开关并使用数据业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_05</t>
+  </si>
+  <si>
+    <t>长时间wifi iperf 链接测试 12h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开BT时待机唤醒  5000 次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">长时间BT播放音乐 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_STRESS_2</t>
+  </si>
+  <si>
+    <t>BT_STRESS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_STRESS_3</t>
+  </si>
+  <si>
+    <t>测试网络信号强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送短信 1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_06</t>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_07</t>
+  </si>
+  <si>
+    <t>来电接听 1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来电拒绝 1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_user_ops_pc                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_user_ops_verify_sgl_thread            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_user_ops_verify_mtp_thread            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_user_ops_speed_sgl_thread             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_user_ops_speed_mtp_thread             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_kernel_ops_speed_with_cache           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_kernel_ops_speed_without_cache        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_kernel_ops_verify_with_cache          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_kernel_ops_verify_without_cache   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_kernel_ops_invalid_sector             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_format_mount </t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>card_hotplug_during_rw</t>
+  </si>
+  <si>
+    <t>card_kernel_driver_suspend_resume</t>
+  </si>
+  <si>
+    <t>card_kernel_mmc_controller_test</t>
+  </si>
+  <si>
+    <t>card_pressure_multi_thread_rw</t>
+  </si>
+  <si>
+    <t>card_pressure_rw_long_time</t>
+  </si>
+  <si>
+    <t>card_user_classx_sd_identify</t>
+  </si>
+  <si>
+    <t>card_user_mmc_and_usb_to_pc_rw_speed</t>
+  </si>
+  <si>
+    <t>card_user_mmc_format</t>
+  </si>
+  <si>
+    <t>card_user_mmc_maxvalue_rw_verify</t>
+  </si>
+  <si>
+    <t>card_user_mmc_multi_format_mix_read_and_write_speed</t>
+  </si>
+  <si>
+    <t>card_user_mmc_multi_format_read_speed</t>
+  </si>
+  <si>
+    <t>card_user_mmc_multi_format_write_speed</t>
+  </si>
+  <si>
+    <t>card_user_mmc_read_verify</t>
+  </si>
+  <si>
+    <t>card_user_mmc_rw_alternately</t>
+  </si>
+  <si>
+    <t>card_user_mmc_rw_speed</t>
+  </si>
+  <si>
+    <t>card_user_mmc_to_nand_rw</t>
+  </si>
+  <si>
+    <t>card_user_mmc_to_pc_rw</t>
+  </si>
+  <si>
+    <t>card_user_mmc_to_udisk_rw</t>
+  </si>
+  <si>
+    <t>card_user_mmc_write_verify</t>
+  </si>
+  <si>
+    <t>card_user_power_on_authentication</t>
+  </si>
+  <si>
+    <t>card_user_start_system_from_card</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_12</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_13</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_14</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_15</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_16</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_17</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_18</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_19</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_20</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_21</t>
+  </si>
+  <si>
+    <t>pinctrl_data_set_api</t>
+  </si>
+  <si>
+    <t>pinctrl_driverlevel_set_api</t>
+  </si>
+  <si>
+    <t>pinctrl_function_set_api</t>
+  </si>
+  <si>
+    <t>pinctrl_gpio_gpiolib_api</t>
+  </si>
+  <si>
+    <t>pinctrl_gpiolib_api</t>
+  </si>
+  <si>
+    <t>pinctrl_gpio_repeat_request_free_api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_gpio_request_free_api                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_gpio_set_debounce_api                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_interrupt_repeat_request_eint_api  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_interrupt_request_eint_api             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_data_set_api                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_devm_get_and_put_api            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_driverlevel_set_api             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_free_gpio_api                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_function_set_api                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_get_api                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_gpio_direction_input_api        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_gpio_direction_output_api   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_lookup_state_api                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_pull_set_api                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_put_api                         </t>
+  </si>
+  <si>
+    <t>pinctrl_pinctrl_repeat_request_all_resource_api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_request_all_resource_api </t>
+  </si>
+  <si>
+    <t>pinctrl_pinctrl_request_gpio_api</t>
+  </si>
+  <si>
+    <t>pinctrl_pinctrl_select_state_api</t>
+  </si>
+  <si>
+    <t>pinctrl_pull_set_api</t>
+  </si>
+  <si>
+    <t>pinctrl_repeat_request_all_resource_api</t>
+  </si>
+  <si>
+    <t>pinctrl_repeat_request_eint_api</t>
+  </si>
+  <si>
+    <t>pinctrl_repeat_request_free_api</t>
+  </si>
+  <si>
+    <t>pinctrl_request_all_resource_api</t>
+  </si>
+  <si>
+    <t>pinctrl_request_eint_api</t>
+  </si>
+  <si>
+    <t>pinctrl_request_free_api</t>
+  </si>
+  <si>
+    <t>pinctrl_scripts_api</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_24</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_25</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_26</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_27</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_28</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_29</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_30</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_31</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_32</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_33</t>
+  </si>
+  <si>
+    <t>DRAM_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAM_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DRAM_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>验证DRAM在不同频率下的稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram_freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram_memtester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用memtester测试DRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证DRAM的自刷新，系统休眠唤醒后内存数据是否保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram_self_fresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepAndWakeUpTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休眠唤醒测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通话测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignalStrengthTest</t>
+  </si>
+  <si>
+    <t>信号强度测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMUTool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池曲线校正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkStatusTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络状态测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TigerRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android自动化测试工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_host_disk_rw_data_verify</t>
+  </si>
+  <si>
+    <t>usb ehci bulk transport test</t>
+  </si>
+  <si>
+    <t>usb ehci ctrl transport test</t>
+  </si>
+  <si>
+    <t>usb ehci interupt transport test</t>
+  </si>
+  <si>
+    <t>usb ehci iso transport test</t>
+  </si>
+  <si>
+    <t>usb_device_pc_hotplug_quick_more.sh</t>
+  </si>
+  <si>
+    <t>usb_host_disk_rw_data_verify.sh</t>
+  </si>
+  <si>
+    <t>usb_host_kernel_transfer_bulk.sh</t>
+  </si>
+  <si>
+    <t>usb_host_kernel_transfer_ctrl.sh</t>
+  </si>
+  <si>
+    <t>usb_host_kernel_transfer_iso_int.sh</t>
+  </si>
+  <si>
+    <t>USB_FUNC_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_FUNC_02</t>
+  </si>
+  <si>
+    <t>USB_FUNC_03</t>
+  </si>
+  <si>
+    <t>USB_FUNC_04</t>
+  </si>
+  <si>
+    <t>USB_FUNC_05</t>
+  </si>
+  <si>
+    <t>USB_FUNC_06</t>
+  </si>
+  <si>
+    <t>USB_FUNC_07</t>
+  </si>
+  <si>
+    <t>usb device insmod and rmmod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_host_disk_rw_data_verify.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3508,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3548,13 +4007,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -3568,10 +4027,10 @@
         <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -3585,10 +4044,10 @@
         <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -3602,10 +4061,10 @@
         <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -3619,10 +4078,10 @@
         <v>174</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -3636,10 +4095,10 @@
         <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -3653,10 +4112,10 @@
         <v>176</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -3815,7 +4274,7 @@
     </row>
     <row r="19" spans="1:7" ht="50.1" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>324</v>
@@ -3848,7 +4307,7 @@
         <v>338</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60" customHeight="1">
@@ -3929,7 +4388,7 @@
     </row>
     <row r="25" spans="1:7" ht="50.1" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>328</v>
@@ -3948,7 +4407,7 @@
     </row>
     <row r="26" spans="1:7" ht="50.1" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>329</v>
@@ -3967,7 +4426,7 @@
     </row>
     <row r="27" spans="1:7" ht="50.1" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>330</v>
@@ -3986,7 +4445,7 @@
     </row>
     <row r="28" spans="1:7" ht="50.1" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>331</v>
@@ -4005,7 +4464,7 @@
     </row>
     <row r="29" spans="1:7" ht="50.1" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>321</v>
@@ -4024,7 +4483,7 @@
     </row>
     <row r="30" spans="1:7" ht="50.1" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>318</v>
@@ -4043,7 +4502,7 @@
     </row>
     <row r="31" spans="1:7" ht="50.1" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>315</v>
@@ -4482,17 +4941,1637 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D38">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A55" s="6"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A62" s="6"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A64" s="6"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A66" s="6"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A67" s="6"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A69" s="7"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A71" s="7"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D71">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="33.5" customWidth="1"/>
@@ -4524,11 +6603,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -4539,11 +6618,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -4554,11 +6633,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -4569,11 +6648,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -4584,11 +6663,11 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -4599,11 +6678,11 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -4614,11 +6693,11 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -4629,11 +6708,11 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -4644,11 +6723,11 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -4659,11 +6738,11 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -4674,11 +6753,11 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
@@ -4689,11 +6768,11 @@
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
@@ -4704,11 +6783,11 @@
     </row>
     <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
@@ -4719,11 +6798,11 @@
     </row>
     <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
@@ -4734,11 +6813,11 @@
     </row>
     <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>33</v>
@@ -4768,7 +6847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -4811,11 +6890,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -4826,11 +6905,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -4841,11 +6920,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -4856,11 +6935,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -4871,11 +6950,11 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -4886,11 +6965,11 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -4920,7 +6999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -4963,11 +7042,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -4978,11 +7057,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -4993,11 +7072,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -5008,11 +7087,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
@@ -5023,11 +7102,11 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -5038,11 +7117,11 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -5053,11 +7132,11 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -5068,11 +7147,11 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -5083,11 +7162,11 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -5098,11 +7177,11 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>677</v>
+        <v>654</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -5132,7 +7211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -5175,13 +7254,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -5211,12 +7290,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5254,13 +7333,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -5271,13 +7350,13 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -5307,12 +7386,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5350,11 +7429,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -5365,11 +7444,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -5380,11 +7459,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -5395,11 +7474,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -5410,11 +7489,11 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -5425,11 +7504,11 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -5440,11 +7519,11 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -5455,11 +7534,11 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -5470,11 +7549,11 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -5485,11 +7564,11 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -5500,11 +7579,11 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
@@ -5534,12 +7613,473 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="72" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="54" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="61.5" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="59.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="45" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="42" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="103.5" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="126" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="79.5" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="78.75" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="50.1" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
+      <formula1>"Automatic,Manual"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5740,7 +8280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -5783,13 +8323,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -5828,12 +8368,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5950,12 +8490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5993,13 +8533,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -6010,13 +8550,13 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -6027,13 +8567,13 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -6044,13 +8584,13 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -6061,13 +8601,13 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -6078,13 +8618,13 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -6095,13 +8635,13 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -6112,13 +8652,13 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -6129,13 +8669,13 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -6146,13 +8686,13 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -6163,11 +8703,11 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
@@ -6176,10 +8716,19 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6188,23 +8737,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="26.875" customWidth="1"/>
-    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5">
@@ -6230,16 +8778,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72" customHeight="1">
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>163</v>
+        <v>835</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>350</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
@@ -6247,16 +8793,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="54" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
@@ -6264,16 +8804,14 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="61.5" customHeight="1">
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>165</v>
+        <v>837</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>220</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
@@ -6281,16 +8819,10 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="59.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
@@ -6298,16 +8830,14 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1">
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>167</v>
+        <v>839</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
@@ -6315,16 +8845,10 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>85</v>
-      </c>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
@@ -6332,16 +8856,14 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="75" customHeight="1">
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>169</v>
+        <v>841</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
@@ -6349,16 +8871,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
@@ -6366,281 +8882,67 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="103.5" customHeight="1">
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>219</v>
+        <v>843</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="126" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="79.5" customHeight="1">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>237</v>
+        <v>845</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="50.1" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="35.25" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A25:C25"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6653,8 +8955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7224,8 +9526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7264,11 +9566,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -7279,11 +9581,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
@@ -7294,11 +9596,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -7309,11 +9611,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
@@ -7324,11 +9626,11 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>32</v>
@@ -7339,11 +9641,11 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
@@ -7354,11 +9656,11 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
@@ -7369,11 +9671,11 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
@@ -7393,11 +9695,11 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -7408,11 +9710,11 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
@@ -7423,11 +9725,11 @@
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
@@ -7438,11 +9740,11 @@
     </row>
     <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
@@ -7462,11 +9764,11 @@
     </row>
     <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
@@ -7477,11 +9779,11 @@
     </row>
     <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
@@ -7492,11 +9794,11 @@
     </row>
     <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
@@ -7507,11 +9809,11 @@
     </row>
     <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
@@ -7522,11 +9824,11 @@
     </row>
     <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>32</v>
@@ -7537,11 +9839,11 @@
     </row>
     <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>33</v>
@@ -7552,11 +9854,11 @@
     </row>
     <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
@@ -7567,11 +9869,11 @@
     </row>
     <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>33</v>
@@ -7582,11 +9884,11 @@
     </row>
     <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>33</v>
@@ -7597,11 +9899,11 @@
     </row>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>32</v>
@@ -7621,11 +9923,11 @@
     </row>
     <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>32</v>
@@ -7636,11 +9938,11 @@
     </row>
     <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>32</v>
@@ -7651,11 +9953,11 @@
     </row>
     <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>32</v>
@@ -7666,11 +9968,11 @@
     </row>
     <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>32</v>
@@ -7681,11 +9983,11 @@
     </row>
     <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>32</v>
@@ -7705,11 +10007,11 @@
     </row>
     <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>32</v>
@@ -7720,11 +10022,11 @@
     </row>
     <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>32</v>
@@ -7735,11 +10037,11 @@
     </row>
     <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>32</v>
@@ -7750,11 +10052,11 @@
     </row>
     <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>32</v>
@@ -7765,11 +10067,11 @@
     </row>
     <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>32</v>
@@ -7780,11 +10082,11 @@
     </row>
     <row r="38" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>32</v>
@@ -7795,11 +10097,11 @@
     </row>
     <row r="39" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>32</v>
@@ -7810,11 +10112,11 @@
     </row>
     <row r="40" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>32</v>
@@ -7825,11 +10127,11 @@
     </row>
     <row r="41" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>32</v>
@@ -7840,11 +10142,11 @@
     </row>
     <row r="42" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>32</v>
@@ -7855,11 +10157,11 @@
     </row>
     <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>32</v>
@@ -7879,11 +10181,11 @@
     </row>
     <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -7892,11 +10194,11 @@
     </row>
     <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -7905,11 +10207,11 @@
     </row>
     <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -7918,11 +10220,11 @@
     </row>
     <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -7931,11 +10233,11 @@
     </row>
     <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -7944,11 +10246,11 @@
     </row>
     <row r="50" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -7957,11 +10259,11 @@
     </row>
     <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -7970,11 +10272,11 @@
     </row>
     <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -7983,11 +10285,11 @@
     </row>
     <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -7996,11 +10298,11 @@
     </row>
     <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -8009,11 +10311,11 @@
     </row>
     <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -8022,11 +10324,11 @@
     </row>
     <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -8035,11 +10337,11 @@
     </row>
     <row r="57" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -8048,11 +10350,11 @@
     </row>
     <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -8070,11 +10372,11 @@
     </row>
     <row r="60" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -8083,11 +10385,11 @@
     </row>
     <row r="61" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -8096,11 +10398,11 @@
     </row>
     <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -8109,11 +10411,11 @@
     </row>
     <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -8122,11 +10424,11 @@
     </row>
     <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -8135,11 +10437,11 @@
     </row>
     <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -8148,11 +10450,11 @@
     </row>
     <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -8161,11 +10463,11 @@
     </row>
     <row r="67" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -8183,11 +10485,11 @@
     </row>
     <row r="69" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -8196,11 +10498,11 @@
     </row>
     <row r="70" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -8230,10 +10532,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8274,14 +10576,14 @@
         <v>375</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -8291,7 +10593,7 @@
         <v>376</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -8305,7 +10607,9 @@
       <c r="A4" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>703</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -8318,7 +10622,9 @@
       <c r="A5" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>707</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -8327,10 +10633,73 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8341,10 +10710,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8385,18 +10754,18 @@
         <v>351</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
@@ -8404,11 +10773,11 @@
         <v>352</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>381</v>
+        <v>705</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>507</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -8419,46 +10788,68 @@
         <v>353</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>713</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>717</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>484</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>718</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>714</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -8483,10 +10874,28 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8500,7 +10909,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8610,16 +11019,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="32.375" customWidth="1"/>
@@ -8651,12 +11061,12 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>719</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>731</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
@@ -8666,12 +11076,12 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>720</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>732</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
@@ -8681,12 +11091,12 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>733</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
@@ -8696,12 +11106,12 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>722</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>734</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
@@ -8711,12 +11121,12 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>723</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>735</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
@@ -8725,28 +11135,22 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>399</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>724</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>736</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
@@ -8756,12 +11160,12 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>742</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
@@ -8771,12 +11175,12 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>743</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>738</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
@@ -8786,12 +11190,12 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>744</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
@@ -8801,12 +11205,12 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>745</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>740</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
@@ -8816,12 +11220,12 @@
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>746</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>741</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
@@ -8830,170 +11234,18 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>411</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9004,16 +11256,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="32.375" customWidth="1"/>
@@ -9045,14 +11298,14 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>725</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>747</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -9060,14 +11313,14 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>748</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -9075,14 +11328,14 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>727</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>749</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -9090,14 +11343,14 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>728</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -9105,38 +11358,44 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>751</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>730</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>768</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>753</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -9144,14 +11403,14 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>754</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -9159,63 +11418,212 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>770</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>755</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>771</v>
+      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>772</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>773</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>774</v>
+      </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
+    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>

--- a/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
+++ b/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="8310" tabRatio="901" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="7995" tabRatio="901" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="869">
   <si>
     <r>
       <t xml:space="preserve">Test Item
@@ -2225,1196 +2225,1211 @@
     <t>csi_stress_longcapturing</t>
   </si>
   <si>
+    <t>csi_regulate_exposure</t>
+  </si>
+  <si>
+    <t>csi_regulate_hflip</t>
+  </si>
+  <si>
+    <t>csi_regulate_white_balance</t>
+  </si>
+  <si>
+    <t>csi_regulate_colorfx</t>
+  </si>
+  <si>
+    <t>csi_regulate_af</t>
+  </si>
+  <si>
+    <t>csi_switch</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>CSI_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>DISPLAY_FB_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_FB_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_FB_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_FB_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>display_be_colorkey</t>
+  </si>
+  <si>
+    <t>display_be_cursor</t>
+  </si>
+  <si>
+    <t>display_be_layer_priority</t>
+  </si>
+  <si>
+    <t>display_be_layer_request_test</t>
+  </si>
+  <si>
+    <t>display_be_source_window</t>
+  </si>
+  <si>
+    <t>display_be_video</t>
+  </si>
+  <si>
+    <t>display_be_alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_be_back_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>DISPLAY_BE_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>display_fb_blank</t>
+  </si>
+  <si>
+    <t>display_fb_mode</t>
+  </si>
+  <si>
+    <t>display_fb_pan</t>
+  </si>
+  <si>
+    <t>display_fb_putvarinfo</t>
+  </si>
+  <si>
+    <t>display_fe_3d_hdmi</t>
+  </si>
+  <si>
+    <t>display_fe_3d_lcd</t>
+  </si>
+  <si>
+    <t>display_fe_capture</t>
+  </si>
+  <si>
+    <t>display_fe_interlace</t>
+  </si>
+  <si>
+    <t>display_fe_scale_updown</t>
+  </si>
+  <si>
+    <t>display_fe_size_020</t>
+  </si>
+  <si>
+    <t>display_fe_size_150</t>
+  </si>
+  <si>
+    <t>display_fe_size_220</t>
+  </si>
+  <si>
+    <t>display_fe_size_620</t>
+  </si>
+  <si>
+    <t>display_fe_writeback</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>DISPLAY_FE_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>display_enhance_composite</t>
+  </si>
+  <si>
+    <t>display_enhance_deu</t>
+  </si>
+  <si>
+    <t>display_enhance_drc</t>
+  </si>
+  <si>
+    <t>display_enhance_layer_enhance</t>
+  </si>
+  <si>
+    <t>display_enhance_screen_enhance</t>
+  </si>
+  <si>
+    <t>DISPLAY_ENHANCE_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_ENHANCE_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_ENHANCE_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_ENHANCE_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_ENHANCE_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>display_output_hdmi_hpd</t>
+  </si>
+  <si>
+    <t>display_output_hdmi_mode</t>
+  </si>
+  <si>
+    <t>display_output_hdmi_open_close</t>
+  </si>
+  <si>
+    <t>display_output_lcd0+hdmi1</t>
+  </si>
+  <si>
+    <t>display_output_lcd0+lcd1</t>
+  </si>
+  <si>
+    <t>display_output_lcd_backlight</t>
+  </si>
+  <si>
+    <t>display_output_lcd_gamma</t>
+  </si>
+  <si>
+    <t>display_output_lcd_open_close</t>
+  </si>
+  <si>
+    <t>display_output_lcd_source</t>
+  </si>
+  <si>
+    <t>display_output_switch</t>
+  </si>
+  <si>
+    <t>display_output_tv_hpd</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>DISPLAY_OUTPUT_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>display_layer_alpha</t>
+  </si>
+  <si>
+    <t>display_layer_format2</t>
+  </si>
+  <si>
+    <t>display_layer_format_3d_hdmi</t>
+  </si>
+  <si>
+    <t>display_layer_format_3d_lcd</t>
+  </si>
+  <si>
+    <t>display_layer_format3</t>
+  </si>
+  <si>
+    <t>display_layer_format</t>
+  </si>
+  <si>
+    <t>display_layer_frame</t>
+  </si>
+  <si>
+    <t>display_layer_premultiply</t>
+  </si>
+  <si>
+    <t>display_layer_scal</t>
+  </si>
+  <si>
+    <t>display_layer_stress2</t>
+  </si>
+  <si>
+    <t>display_layer_stress3</t>
+  </si>
+  <si>
+    <t>display_layer_stress_ready</t>
+  </si>
+  <si>
+    <t>display_layer_stress</t>
+  </si>
+  <si>
+    <t>display_layer_zorder</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_12</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_13</t>
+  </si>
+  <si>
+    <t>DISPLAY_LAYER_FUNCTION_14</t>
+  </si>
+  <si>
+    <t>display_smart_backlight</t>
+  </si>
+  <si>
+    <t>display_smart_color</t>
+  </si>
+  <si>
+    <t>display_uevent</t>
+  </si>
+  <si>
+    <t>display_lcd</t>
+  </si>
+  <si>
+    <t>display_set_env</t>
+  </si>
+  <si>
+    <t>display_cursor</t>
+  </si>
+  <si>
+    <t>display_hdmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_standby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_stress_bandwidth</t>
+  </si>
+  <si>
+    <t>display_stress_layer_quick_request_release</t>
+  </si>
+  <si>
+    <t>DISPLAY_STRESS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>DISPLAY_MISC_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>DISPLAY_STRESS_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>CCU_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>ccu_clksim_gatetest</t>
+  </si>
+  <si>
+    <t>ccu_clksim_ratetest</t>
+  </si>
+  <si>
+    <t>ccu_clk_function_modclk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccu_clk_pressure_test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccu_clk_function_gateclk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccu_dump_compare_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pmu_ldo_test_function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldo dcdc test for evb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>ARISC_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>arisc_axptest.sh</t>
+  </si>
+  <si>
+    <t>arisc_dvfstest.sh</t>
+  </si>
+  <si>
+    <t>arisc_estandbytest.sh</t>
+  </si>
+  <si>
+    <t>arisc_fstandbytest.sh</t>
+  </si>
+  <si>
+    <t>arisc_interfacetest.sh</t>
+  </si>
+  <si>
+    <t>arisc_messagetest.sh</t>
+  </si>
+  <si>
+    <t>arisc_presstest.sh</t>
+  </si>
+  <si>
+    <t>arisc_sstandbytest.sh</t>
+  </si>
+  <si>
+    <t>arisc_standby_sence.sh</t>
+  </si>
+  <si>
+    <t>arisc_standby.sh</t>
+  </si>
+  <si>
+    <t>TWI_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twi_host_gsensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twi_host_eeprom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test TWI driver by EEPROM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read the coordinate from Gsensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>KEY_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>GSENSOR_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gsensor 校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpus standby test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpus_standby_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpus extended standby test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpus_standby_extended_common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu hotplug test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvfs_cpu_hotplug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu max power test based on fantasys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvfs_cpu_max_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu pulse event test based on fantasys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvfs_cpu_pulse_event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram setfreq/getfreq test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvfs_dram_freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram setfreq/getfreq time test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvfs_dram_freq_perf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi: R/W test by NorFlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spi_data_transfer_mtd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_14</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_15</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_16</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_17</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_18</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_19</t>
+  </si>
+  <si>
+    <t>CPU_FUNCTION_20</t>
+  </si>
+  <si>
+    <t>已连接有可用wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT反复开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开wifi时待机唤醒 5000 次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络视频播放 12h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_04</t>
+  </si>
+  <si>
+    <t>反复开关并使用数据业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_05</t>
+  </si>
+  <si>
+    <t>长时间wifi iperf 链接测试 12h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开BT时待机唤醒  5000 次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">长时间BT播放音乐 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_STRESS_2</t>
+  </si>
+  <si>
+    <t>BT_STRESS_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_STRESS_3</t>
+  </si>
+  <si>
+    <t>测试网络信号强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送短信 1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_06</t>
+  </si>
+  <si>
+    <t>2G/3G_FUNCTION_07</t>
+  </si>
+  <si>
+    <t>来电接听 1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来电拒绝 1000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_6</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_4</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_5</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_user_ops_pc                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_user_ops_verify_sgl_thread            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_user_ops_verify_mtp_thread            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_user_ops_speed_sgl_thread             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_user_ops_speed_mtp_thread             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_kernel_ops_speed_with_cache           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_kernel_ops_speed_without_cache        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_kernel_ops_verify_with_cache          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_kernel_ops_verify_without_cache   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_kernel_ops_invalid_sector             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nand_format_mount </t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>NAND_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>card_hotplug_during_rw</t>
+  </si>
+  <si>
+    <t>card_kernel_driver_suspend_resume</t>
+  </si>
+  <si>
+    <t>card_kernel_mmc_controller_test</t>
+  </si>
+  <si>
+    <t>card_pressure_multi_thread_rw</t>
+  </si>
+  <si>
+    <t>card_pressure_rw_long_time</t>
+  </si>
+  <si>
+    <t>card_user_classx_sd_identify</t>
+  </si>
+  <si>
+    <t>card_user_mmc_and_usb_to_pc_rw_speed</t>
+  </si>
+  <si>
+    <t>card_user_mmc_format</t>
+  </si>
+  <si>
+    <t>card_user_mmc_maxvalue_rw_verify</t>
+  </si>
+  <si>
+    <t>card_user_mmc_multi_format_mix_read_and_write_speed</t>
+  </si>
+  <si>
+    <t>card_user_mmc_multi_format_read_speed</t>
+  </si>
+  <si>
+    <t>card_user_mmc_multi_format_write_speed</t>
+  </si>
+  <si>
+    <t>card_user_mmc_read_verify</t>
+  </si>
+  <si>
+    <t>card_user_mmc_rw_alternately</t>
+  </si>
+  <si>
+    <t>card_user_mmc_rw_speed</t>
+  </si>
+  <si>
+    <t>card_user_mmc_to_nand_rw</t>
+  </si>
+  <si>
+    <t>card_user_mmc_to_pc_rw</t>
+  </si>
+  <si>
+    <t>card_user_mmc_to_udisk_rw</t>
+  </si>
+  <si>
+    <t>card_user_mmc_write_verify</t>
+  </si>
+  <si>
+    <t>card_user_power_on_authentication</t>
+  </si>
+  <si>
+    <t>card_user_start_system_from_card</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_7</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_8</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_9</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_10</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_11</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_12</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_13</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_14</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_15</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_16</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_17</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_18</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_19</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_20</t>
+  </si>
+  <si>
+    <t>CARD_FUNCTION_21</t>
+  </si>
+  <si>
+    <t>pinctrl_data_set_api</t>
+  </si>
+  <si>
+    <t>pinctrl_driverlevel_set_api</t>
+  </si>
+  <si>
+    <t>pinctrl_function_set_api</t>
+  </si>
+  <si>
+    <t>pinctrl_gpio_gpiolib_api</t>
+  </si>
+  <si>
+    <t>pinctrl_gpiolib_api</t>
+  </si>
+  <si>
+    <t>pinctrl_gpio_repeat_request_free_api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_gpio_request_free_api                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_gpio_set_debounce_api                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_interrupt_repeat_request_eint_api  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_interrupt_request_eint_api             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_data_set_api                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_devm_get_and_put_api            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_driverlevel_set_api             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_free_gpio_api                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_function_set_api                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_get_api                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_gpio_direction_input_api        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_gpio_direction_output_api   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_lookup_state_api                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_pull_set_api                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_put_api                         </t>
+  </si>
+  <si>
+    <t>pinctrl_pinctrl_repeat_request_all_resource_api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinctrl_pinctrl_request_all_resource_api </t>
+  </si>
+  <si>
+    <t>pinctrl_pinctrl_request_gpio_api</t>
+  </si>
+  <si>
+    <t>pinctrl_pinctrl_select_state_api</t>
+  </si>
+  <si>
+    <t>pinctrl_pull_set_api</t>
+  </si>
+  <si>
+    <t>pinctrl_repeat_request_all_resource_api</t>
+  </si>
+  <si>
+    <t>pinctrl_repeat_request_eint_api</t>
+  </si>
+  <si>
+    <t>pinctrl_repeat_request_free_api</t>
+  </si>
+  <si>
+    <t>pinctrl_request_all_resource_api</t>
+  </si>
+  <si>
+    <t>pinctrl_request_eint_api</t>
+  </si>
+  <si>
+    <t>pinctrl_request_free_api</t>
+  </si>
+  <si>
+    <t>pinctrl_scripts_api</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_24</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_25</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_26</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_27</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_28</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_29</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_30</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_31</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_32</t>
+  </si>
+  <si>
+    <t>PINCTRL_FUNCTION_33</t>
+  </si>
+  <si>
+    <t>DRAM_FUNCTION_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAM_FUNCTION_2</t>
+  </si>
+  <si>
+    <t>DRAM_FUNCTION_3</t>
+  </si>
+  <si>
+    <t>验证DRAM在不同频率下的稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram_freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram_memtester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用memtester测试DRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证DRAM的自刷新，系统休眠唤醒后内存数据是否保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dram_self_fresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepAndWakeUpTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休眠唤醒测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通话测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignalStrengthTest</t>
+  </si>
+  <si>
+    <t>信号强度测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMUTool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池曲线校正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkStatusTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络状态测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TigerRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android自动化测试工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_host_disk_rw_data_verify</t>
+  </si>
+  <si>
+    <t>usb ehci bulk transport test</t>
+  </si>
+  <si>
+    <t>usb ehci ctrl transport test</t>
+  </si>
+  <si>
+    <t>usb ehci interupt transport test</t>
+  </si>
+  <si>
+    <t>usb ehci iso transport test</t>
+  </si>
+  <si>
+    <t>usb_device_pc_hotplug_quick_more.sh</t>
+  </si>
+  <si>
+    <t>usb_host_disk_rw_data_verify.sh</t>
+  </si>
+  <si>
+    <t>usb_host_kernel_transfer_bulk.sh</t>
+  </si>
+  <si>
+    <t>usb_host_kernel_transfer_ctrl.sh</t>
+  </si>
+  <si>
+    <t>usb_host_kernel_transfer_iso_int.sh</t>
+  </si>
+  <si>
+    <t>USB_FUNC_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB_FUNC_02</t>
+  </si>
+  <si>
+    <t>USB_FUNC_03</t>
+  </si>
+  <si>
+    <t>USB_FUNC_04</t>
+  </si>
+  <si>
+    <t>USB_FUNC_05</t>
+  </si>
+  <si>
+    <t>USB_FUNC_06</t>
+  </si>
+  <si>
+    <t>USB_FUNC_07</t>
+  </si>
+  <si>
+    <t>usb device insmod and rmmod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb_host_disk_rw_data_verify.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csi_regulate_vflip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csi_picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>csi_video</t>
-  </si>
-  <si>
-    <t>csi_picture</t>
-  </si>
-  <si>
-    <t>csi_regulate_exposure</t>
-  </si>
-  <si>
-    <t>csi_regulate_hflip</t>
-  </si>
-  <si>
-    <t>csi_regulate_vflip</t>
-  </si>
-  <si>
-    <t>csi_regulate_white_balance</t>
-  </si>
-  <si>
-    <t>csi_regulate_colorfx</t>
-  </si>
-  <si>
-    <t>csi_regulate_af</t>
-  </si>
-  <si>
-    <t>csi_switch</t>
-  </si>
-  <si>
-    <t>CSI_FUNCTION_10</t>
-  </si>
-  <si>
-    <t>CSI_FUNCTION_11</t>
-  </si>
-  <si>
-    <t>DISPLAY_FB_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAY_FB_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>DISPLAY_FB_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>DISPLAY_FB_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>display_be_colorkey</t>
-  </si>
-  <si>
-    <t>display_be_cursor</t>
-  </si>
-  <si>
-    <t>display_be_layer_priority</t>
-  </si>
-  <si>
-    <t>display_be_layer_request_test</t>
-  </si>
-  <si>
-    <t>display_be_source_window</t>
-  </si>
-  <si>
-    <t>display_be_video</t>
-  </si>
-  <si>
-    <t>display_be_alpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display_be_back_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAY_BE_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAY_BE_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>DISPLAY_BE_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>DISPLAY_BE_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>DISPLAY_BE_FUNCTION_5</t>
-  </si>
-  <si>
-    <t>DISPLAY_BE_FUNCTION_6</t>
-  </si>
-  <si>
-    <t>DISPLAY_BE_FUNCTION_7</t>
-  </si>
-  <si>
-    <t>DISPLAY_BE_FUNCTION_8</t>
-  </si>
-  <si>
-    <t>display_fb_blank</t>
-  </si>
-  <si>
-    <t>display_fb_mode</t>
-  </si>
-  <si>
-    <t>display_fb_pan</t>
-  </si>
-  <si>
-    <t>display_fb_putvarinfo</t>
-  </si>
-  <si>
-    <t>display_fe_3d_hdmi</t>
-  </si>
-  <si>
-    <t>display_fe_3d_lcd</t>
-  </si>
-  <si>
-    <t>display_fe_capture</t>
-  </si>
-  <si>
-    <t>display_fe_interlace</t>
-  </si>
-  <si>
-    <t>display_fe_scale_updown</t>
-  </si>
-  <si>
-    <t>display_fe_size_020</t>
-  </si>
-  <si>
-    <t>display_fe_size_150</t>
-  </si>
-  <si>
-    <t>display_fe_size_220</t>
-  </si>
-  <si>
-    <t>display_fe_size_620</t>
-  </si>
-  <si>
-    <t>display_fe_writeback</t>
-  </si>
-  <si>
-    <t>DISPLAY_FE_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAY_FE_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>DISPLAY_FE_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>DISPLAY_FE_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>DISPLAY_FE_FUNCTION_5</t>
-  </si>
-  <si>
-    <t>DISPLAY_FE_FUNCTION_6</t>
-  </si>
-  <si>
-    <t>DISPLAY_FE_FUNCTION_7</t>
-  </si>
-  <si>
-    <t>DISPLAY_FE_FUNCTION_8</t>
-  </si>
-  <si>
-    <t>DISPLAY_FE_FUNCTION_9</t>
-  </si>
-  <si>
-    <t>DISPLAY_FE_FUNCTION_10</t>
-  </si>
-  <si>
-    <t>display_enhance_composite</t>
-  </si>
-  <si>
-    <t>display_enhance_deu</t>
-  </si>
-  <si>
-    <t>display_enhance_drc</t>
-  </si>
-  <si>
-    <t>display_enhance_layer_enhance</t>
-  </si>
-  <si>
-    <t>display_enhance_screen_enhance</t>
-  </si>
-  <si>
-    <t>DISPLAY_ENHANCE_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAY_ENHANCE_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>DISPLAY_ENHANCE_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>DISPLAY_ENHANCE_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>DISPLAY_ENHANCE_FUNCTION_5</t>
-  </si>
-  <si>
-    <t>display_output_hdmi_hpd</t>
-  </si>
-  <si>
-    <t>display_output_hdmi_mode</t>
-  </si>
-  <si>
-    <t>display_output_hdmi_open_close</t>
-  </si>
-  <si>
-    <t>display_output_lcd0+hdmi1</t>
-  </si>
-  <si>
-    <t>display_output_lcd0+lcd1</t>
-  </si>
-  <si>
-    <t>display_output_lcd_backlight</t>
-  </si>
-  <si>
-    <t>display_output_lcd_gamma</t>
-  </si>
-  <si>
-    <t>display_output_lcd_open_close</t>
-  </si>
-  <si>
-    <t>display_output_lcd_source</t>
-  </si>
-  <si>
-    <t>display_output_switch</t>
-  </si>
-  <si>
-    <t>display_output_tv_hpd</t>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_10</t>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_5</t>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_6</t>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_7</t>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_8</t>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_9</t>
-  </si>
-  <si>
-    <t>DISPLAY_OUTPUT_FUNCTION_11</t>
-  </si>
-  <si>
-    <t>display_layer_alpha</t>
-  </si>
-  <si>
-    <t>display_layer_format2</t>
-  </si>
-  <si>
-    <t>display_layer_format_3d_hdmi</t>
-  </si>
-  <si>
-    <t>display_layer_format_3d_lcd</t>
-  </si>
-  <si>
-    <t>display_layer_format3</t>
-  </si>
-  <si>
-    <t>display_layer_format</t>
-  </si>
-  <si>
-    <t>display_layer_frame</t>
-  </si>
-  <si>
-    <t>display_layer_premultiply</t>
-  </si>
-  <si>
-    <t>display_layer_scal</t>
-  </si>
-  <si>
-    <t>display_layer_stress2</t>
-  </si>
-  <si>
-    <t>display_layer_stress3</t>
-  </si>
-  <si>
-    <t>display_layer_stress_ready</t>
-  </si>
-  <si>
-    <t>display_layer_stress</t>
-  </si>
-  <si>
-    <t>display_layer_zorder</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_11</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_5</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_6</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_7</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_8</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_9</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_10</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_12</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_13</t>
-  </si>
-  <si>
-    <t>DISPLAY_LAYER_FUNCTION_14</t>
-  </si>
-  <si>
-    <t>display_smart_backlight</t>
-  </si>
-  <si>
-    <t>display_smart_color</t>
-  </si>
-  <si>
-    <t>display_uevent</t>
-  </si>
-  <si>
-    <t>display_lcd</t>
-  </si>
-  <si>
-    <t>display_set_env</t>
-  </si>
-  <si>
-    <t>display_cursor</t>
-  </si>
-  <si>
-    <t>display_hdmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display_standby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display_stress_bandwidth</t>
-  </si>
-  <si>
-    <t>display_stress_layer_quick_request_release</t>
-  </si>
-  <si>
-    <t>DISPLAY_STRESS_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAY_MISC_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPLAY_MISC_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>DISPLAY_MISC_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>DISPLAY_MISC_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>DISPLAY_MISC_FUNCTION_5</t>
-  </si>
-  <si>
-    <t>DISPLAY_MISC_FUNCTION_6</t>
-  </si>
-  <si>
-    <t>DISPLAY_MISC_FUNCTION_7</t>
-  </si>
-  <si>
-    <t>DISPLAY_MISC_FUNCTION_8</t>
-  </si>
-  <si>
-    <t>DISPLAY_STRESS_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCU_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCU_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>CCU_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>CCU_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>CCU_FUNCTION_5</t>
-  </si>
-  <si>
-    <t>CCU_FUNCTION_6</t>
-  </si>
-  <si>
-    <t>ccu_clksim_gatetest</t>
-  </si>
-  <si>
-    <t>ccu_clksim_ratetest</t>
-  </si>
-  <si>
-    <t>ccu_clk_function_modclk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccu_clk_pressure_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccu_clk_function_gateclk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccu_dump_compare_reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pmu_ldo_test_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldo dcdc test for evb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARISC_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARISC_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>ARISC_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>ARISC_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>ARISC_FUNCTION_5</t>
-  </si>
-  <si>
-    <t>ARISC_FUNCTION_6</t>
-  </si>
-  <si>
-    <t>ARISC_FUNCTION_7</t>
-  </si>
-  <si>
-    <t>ARISC_FUNCTION_8</t>
-  </si>
-  <si>
-    <t>ARISC_FUNCTION_9</t>
-  </si>
-  <si>
-    <t>ARISC_FUNCTION_10</t>
-  </si>
-  <si>
-    <t>arisc_axptest.sh</t>
-  </si>
-  <si>
-    <t>arisc_dvfstest.sh</t>
-  </si>
-  <si>
-    <t>arisc_estandbytest.sh</t>
-  </si>
-  <si>
-    <t>arisc_fstandbytest.sh</t>
-  </si>
-  <si>
-    <t>arisc_interfacetest.sh</t>
-  </si>
-  <si>
-    <t>arisc_messagetest.sh</t>
-  </si>
-  <si>
-    <t>arisc_presstest.sh</t>
-  </si>
-  <si>
-    <t>arisc_sstandbytest.sh</t>
-  </si>
-  <si>
-    <t>arisc_standby_sence.sh</t>
-  </si>
-  <si>
-    <t>arisc_standby.sh</t>
-  </si>
-  <si>
-    <t>TWI_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>twi_host_gsensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>twi_host_eeprom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test TWI driver by EEPROM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read the coordinate from Gsensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>KEY_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>GSENSOR_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gsensor 校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpus standby test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpus_standby_common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpus extended standby test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpus_standby_extended_common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu hotplug test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dvfs_cpu_hotplug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu max power test based on fantasys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dvfs_cpu_max_power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu pulse event test based on fantasys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dvfs_cpu_pulse_event</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dram setfreq/getfreq test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dvfs_dram_freq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dram setfreq/getfreq time test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dvfs_dram_freq_perf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spi: R/W test by NorFlash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spi_data_transfer_mtd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU_FUNCTION_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU_FUNCTION_14</t>
-  </si>
-  <si>
-    <t>CPU_FUNCTION_15</t>
-  </si>
-  <si>
-    <t>CPU_FUNCTION_16</t>
-  </si>
-  <si>
-    <t>CPU_FUNCTION_17</t>
-  </si>
-  <si>
-    <t>CPU_FUNCTION_18</t>
-  </si>
-  <si>
-    <t>CPU_FUNCTION_19</t>
-  </si>
-  <si>
-    <t>CPU_FUNCTION_20</t>
-  </si>
-  <si>
-    <t>已连接有可用wifi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BT反复开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开wifi时待机唤醒 5000 次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络视频播放 12h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2G/3G_FUNCTION_04</t>
-  </si>
-  <si>
-    <t>反复开关并使用数据业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2G/3G_FUNCTION_05</t>
-  </si>
-  <si>
-    <t>长时间wifi iperf 链接测试 12h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开BT时待机唤醒  5000 次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">长时间BT播放音乐 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BT_STRESS_2</t>
-  </si>
-  <si>
-    <t>BT_STRESS_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BT_STRESS_3</t>
-  </si>
-  <si>
-    <t>测试网络信号强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送短信 1000次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2G/3G_FUNCTION_06</t>
-  </si>
-  <si>
-    <t>2G/3G_FUNCTION_07</t>
-  </si>
-  <si>
-    <t>来电接听 1000次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来电拒绝 1000次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_5</t>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_6</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_4</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_5</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_user_ops_pc                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_user_ops_verify_sgl_thread            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_user_ops_verify_mtp_thread            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_user_ops_speed_sgl_thread             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_user_ops_speed_mtp_thread             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_kernel_ops_speed_with_cache           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_kernel_ops_speed_without_cache        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_kernel_ops_verify_with_cache          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_kernel_ops_verify_without_cache   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_kernel_ops_invalid_sector             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nand_format_mount </t>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_7</t>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_8</t>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_9</t>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_10</t>
-  </si>
-  <si>
-    <t>NAND_FUNCTION_11</t>
-  </si>
-  <si>
-    <t>card_hotplug_during_rw</t>
-  </si>
-  <si>
-    <t>card_kernel_driver_suspend_resume</t>
-  </si>
-  <si>
-    <t>card_kernel_mmc_controller_test</t>
-  </si>
-  <si>
-    <t>card_pressure_multi_thread_rw</t>
-  </si>
-  <si>
-    <t>card_pressure_rw_long_time</t>
-  </si>
-  <si>
-    <t>card_user_classx_sd_identify</t>
-  </si>
-  <si>
-    <t>card_user_mmc_and_usb_to_pc_rw_speed</t>
-  </si>
-  <si>
-    <t>card_user_mmc_format</t>
-  </si>
-  <si>
-    <t>card_user_mmc_maxvalue_rw_verify</t>
-  </si>
-  <si>
-    <t>card_user_mmc_multi_format_mix_read_and_write_speed</t>
-  </si>
-  <si>
-    <t>card_user_mmc_multi_format_read_speed</t>
-  </si>
-  <si>
-    <t>card_user_mmc_multi_format_write_speed</t>
-  </si>
-  <si>
-    <t>card_user_mmc_read_verify</t>
-  </si>
-  <si>
-    <t>card_user_mmc_rw_alternately</t>
-  </si>
-  <si>
-    <t>card_user_mmc_rw_speed</t>
-  </si>
-  <si>
-    <t>card_user_mmc_to_nand_rw</t>
-  </si>
-  <si>
-    <t>card_user_mmc_to_pc_rw</t>
-  </si>
-  <si>
-    <t>card_user_mmc_to_udisk_rw</t>
-  </si>
-  <si>
-    <t>card_user_mmc_write_verify</t>
-  </si>
-  <si>
-    <t>card_user_power_on_authentication</t>
-  </si>
-  <si>
-    <t>card_user_start_system_from_card</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_7</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_8</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_9</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_10</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_11</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_12</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_13</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_14</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_15</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_16</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_17</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_18</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_19</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_20</t>
-  </si>
-  <si>
-    <t>CARD_FUNCTION_21</t>
-  </si>
-  <si>
-    <t>pinctrl_data_set_api</t>
-  </si>
-  <si>
-    <t>pinctrl_driverlevel_set_api</t>
-  </si>
-  <si>
-    <t>pinctrl_function_set_api</t>
-  </si>
-  <si>
-    <t>pinctrl_gpio_gpiolib_api</t>
-  </si>
-  <si>
-    <t>pinctrl_gpiolib_api</t>
-  </si>
-  <si>
-    <t>pinctrl_gpio_repeat_request_free_api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_gpio_request_free_api                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_gpio_set_debounce_api                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_interrupt_repeat_request_eint_api  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_interrupt_request_eint_api             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_data_set_api                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_devm_get_and_put_api            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_driverlevel_set_api             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_free_gpio_api                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_function_set_api                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_get_api                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_gpio_direction_input_api        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_gpio_direction_output_api   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_lookup_state_api                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_pull_set_api                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_put_api                         </t>
-  </si>
-  <si>
-    <t>pinctrl_pinctrl_repeat_request_all_resource_api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinctrl_pinctrl_request_all_resource_api </t>
-  </si>
-  <si>
-    <t>pinctrl_pinctrl_request_gpio_api</t>
-  </si>
-  <si>
-    <t>pinctrl_pinctrl_select_state_api</t>
-  </si>
-  <si>
-    <t>pinctrl_pull_set_api</t>
-  </si>
-  <si>
-    <t>pinctrl_repeat_request_all_resource_api</t>
-  </si>
-  <si>
-    <t>pinctrl_repeat_request_eint_api</t>
-  </si>
-  <si>
-    <t>pinctrl_repeat_request_free_api</t>
-  </si>
-  <si>
-    <t>pinctrl_request_all_resource_api</t>
-  </si>
-  <si>
-    <t>pinctrl_request_eint_api</t>
-  </si>
-  <si>
-    <t>pinctrl_request_free_api</t>
-  </si>
-  <si>
-    <t>pinctrl_scripts_api</t>
-  </si>
-  <si>
-    <t>PINCTRL_FUNCTION_24</t>
-  </si>
-  <si>
-    <t>PINCTRL_FUNCTION_25</t>
-  </si>
-  <si>
-    <t>PINCTRL_FUNCTION_26</t>
-  </si>
-  <si>
-    <t>PINCTRL_FUNCTION_27</t>
-  </si>
-  <si>
-    <t>PINCTRL_FUNCTION_28</t>
-  </si>
-  <si>
-    <t>PINCTRL_FUNCTION_29</t>
-  </si>
-  <si>
-    <t>PINCTRL_FUNCTION_30</t>
-  </si>
-  <si>
-    <t>PINCTRL_FUNCTION_31</t>
-  </si>
-  <si>
-    <t>PINCTRL_FUNCTION_32</t>
-  </si>
-  <si>
-    <t>PINCTRL_FUNCTION_33</t>
-  </si>
-  <si>
-    <t>DRAM_FUNCTION_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRAM_FUNCTION_2</t>
-  </si>
-  <si>
-    <t>DRAM_FUNCTION_3</t>
-  </si>
-  <si>
-    <t>验证DRAM在不同频率下的稳定性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dram_freq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dram_memtester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用memtester测试DRAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证DRAM的自刷新，系统休眠唤醒后内存数据是否保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dram_self_fresh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SleepAndWakeUpTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休眠唤醒测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CallTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通话测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SignalStrengthTest</t>
-  </si>
-  <si>
-    <t>信号强度测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMUTool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电池曲线校正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetworkStatusTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络状态测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TigerRobot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android自动化测试工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usb_host_disk_rw_data_verify</t>
-  </si>
-  <si>
-    <t>usb ehci bulk transport test</t>
-  </si>
-  <si>
-    <t>usb ehci ctrl transport test</t>
-  </si>
-  <si>
-    <t>usb ehci interupt transport test</t>
-  </si>
-  <si>
-    <t>usb ehci iso transport test</t>
-  </si>
-  <si>
-    <t>usb_device_pc_hotplug_quick_more.sh</t>
-  </si>
-  <si>
-    <t>usb_host_disk_rw_data_verify.sh</t>
-  </si>
-  <si>
-    <t>usb_host_kernel_transfer_bulk.sh</t>
-  </si>
-  <si>
-    <t>usb_host_kernel_transfer_ctrl.sh</t>
-  </si>
-  <si>
-    <t>usb_host_kernel_transfer_iso_int.sh</t>
-  </si>
-  <si>
-    <t>USB_FUNC_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB_FUNC_02</t>
-  </si>
-  <si>
-    <t>USB_FUNC_03</t>
-  </si>
-  <si>
-    <t>USB_FUNC_04</t>
-  </si>
-  <si>
-    <t>USB_FUNC_05</t>
-  </si>
-  <si>
-    <t>USB_FUNC_06</t>
-  </si>
-  <si>
-    <t>USB_FUNC_07</t>
-  </si>
-  <si>
-    <t>usb device insmod and rmmod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usb_host_disk_rw_data_verify.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux性能测试，反应时间和带宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMBENCH_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lmbench_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3967,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4010,10 +4025,10 @@
         <v>469</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -4027,10 +4042,10 @@
         <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -4044,10 +4059,10 @@
         <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -4061,10 +4076,10 @@
         <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -4078,10 +4093,10 @@
         <v>174</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -4095,10 +4110,10 @@
         <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -4112,10 +4127,10 @@
         <v>176</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -4274,7 +4289,7 @@
     </row>
     <row r="19" spans="1:7" ht="50.1" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>324</v>
@@ -4388,7 +4403,7 @@
     </row>
     <row r="25" spans="1:7" ht="50.1" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>328</v>
@@ -4407,7 +4422,7 @@
     </row>
     <row r="26" spans="1:7" ht="50.1" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>329</v>
@@ -4426,7 +4441,7 @@
     </row>
     <row r="27" spans="1:7" ht="50.1" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>330</v>
@@ -4445,7 +4460,7 @@
     </row>
     <row r="28" spans="1:7" ht="50.1" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>331</v>
@@ -4464,7 +4479,7 @@
     </row>
     <row r="29" spans="1:7" ht="50.1" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>321</v>
@@ -4483,7 +4498,7 @@
     </row>
     <row r="30" spans="1:7" ht="50.1" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>318</v>
@@ -4502,7 +4517,7 @@
     </row>
     <row r="31" spans="1:7" ht="50.1" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>315</v>
@@ -4987,7 +5002,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -5002,7 +5017,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -5017,7 +5032,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -5041,7 +5056,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -5056,7 +5071,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -5071,7 +5086,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -5086,7 +5101,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -5101,7 +5116,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -5125,7 +5140,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
@@ -5140,7 +5155,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
@@ -5164,7 +5179,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
@@ -5179,7 +5194,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>33</v>
@@ -5194,7 +5209,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>33</v>
@@ -5209,7 +5224,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
@@ -5224,7 +5239,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
@@ -5239,7 +5254,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -5254,7 +5269,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>33</v>
@@ -5269,7 +5284,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
@@ -5284,7 +5299,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>33</v>
@@ -5299,7 +5314,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>33</v>
@@ -5314,7 +5329,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
@@ -5327,7 +5342,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
@@ -5340,7 +5355,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
@@ -5349,11 +5364,11 @@
     </row>
     <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
@@ -5362,11 +5377,11 @@
     </row>
     <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
@@ -5375,11 +5390,11 @@
     </row>
     <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
@@ -5388,11 +5403,11 @@
     </row>
     <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
@@ -5401,11 +5416,11 @@
     </row>
     <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
@@ -5414,11 +5429,11 @@
     </row>
     <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
@@ -5427,11 +5442,11 @@
     </row>
     <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
@@ -5440,11 +5455,11 @@
     </row>
     <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
@@ -5453,11 +5468,11 @@
     </row>
     <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
@@ -5466,11 +5481,11 @@
     </row>
     <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
@@ -5542,13 +5557,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5557,13 +5572,13 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5572,13 +5587,13 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5587,13 +5602,13 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -5602,13 +5617,13 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5617,13 +5632,13 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5632,13 +5647,13 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6229,7 +6244,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6267,13 +6282,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>829</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -6284,13 +6299,13 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -6301,13 +6316,13 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -6464,7 +6479,7 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>480</v>
@@ -6479,7 +6494,7 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>481</v>
@@ -6494,7 +6509,7 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>482</v>
@@ -6518,10 +6533,10 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6564,7 +6579,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6890,11 +6905,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -6905,11 +6920,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -6920,11 +6935,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -6935,11 +6950,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -6950,11 +6965,11 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -6965,11 +6980,11 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -7042,11 +7057,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -7057,11 +7072,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -7072,11 +7087,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -7087,11 +7102,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
@@ -7102,11 +7117,11 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -7117,11 +7132,11 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -7132,11 +7147,11 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -7147,11 +7162,11 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -7162,11 +7177,11 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -7177,11 +7192,11 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -7254,13 +7269,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -7295,7 +7310,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7333,13 +7348,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -7350,13 +7365,13 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -7390,8 +7405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7433,7 +7448,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>496</v>
+        <v>865</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -7448,7 +7463,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>497</v>
+        <v>864</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -7463,7 +7478,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -7478,7 +7493,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -7493,7 +7508,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>500</v>
+        <v>863</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -7508,7 +7523,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -7523,7 +7538,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -7538,7 +7553,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -7553,7 +7568,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -7564,7 +7579,7 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -7579,7 +7594,7 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -7617,8 +7632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8323,13 +8338,13 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -8492,10 +8507,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8717,18 +8732,35 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14">
       <formula1>"Automatic,Manual"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8741,8 +8773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8780,10 +8812,10 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -8806,10 +8838,10 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -8832,10 +8864,10 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -8858,10 +8890,10 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -8884,10 +8916,10 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
@@ -8910,10 +8942,10 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9526,8 +9558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9566,11 +9598,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
@@ -9581,11 +9613,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>32</v>
@@ -9596,11 +9628,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -9611,11 +9643,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
@@ -9626,11 +9658,11 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>32</v>
@@ -9641,11 +9673,11 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
@@ -9656,11 +9688,11 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>32</v>
@@ -9671,11 +9703,11 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
@@ -9695,11 +9727,11 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -9710,11 +9742,11 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
@@ -9725,11 +9757,11 @@
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
@@ -9740,11 +9772,11 @@
     </row>
     <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
@@ -9764,11 +9796,11 @@
     </row>
     <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
@@ -9779,11 +9811,11 @@
     </row>
     <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
@@ -9794,11 +9826,11 @@
     </row>
     <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
@@ -9809,11 +9841,11 @@
     </row>
     <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
@@ -9824,11 +9856,11 @@
     </row>
     <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>32</v>
@@ -9839,11 +9871,11 @@
     </row>
     <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>33</v>
@@ -9854,11 +9886,11 @@
     </row>
     <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
@@ -9869,11 +9901,11 @@
     </row>
     <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>33</v>
@@ -9884,11 +9916,11 @@
     </row>
     <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>33</v>
@@ -9899,11 +9931,11 @@
     </row>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>32</v>
@@ -9923,11 +9955,11 @@
     </row>
     <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>32</v>
@@ -9938,11 +9970,11 @@
     </row>
     <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>32</v>
@@ -9953,11 +9985,11 @@
     </row>
     <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>32</v>
@@ -9968,11 +10000,11 @@
     </row>
     <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>32</v>
@@ -9983,11 +10015,11 @@
     </row>
     <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>32</v>
@@ -10007,11 +10039,11 @@
     </row>
     <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>32</v>
@@ -10022,11 +10054,11 @@
     </row>
     <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>32</v>
@@ -10037,11 +10069,11 @@
     </row>
     <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>32</v>
@@ -10052,11 +10084,11 @@
     </row>
     <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>32</v>
@@ -10067,11 +10099,11 @@
     </row>
     <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>32</v>
@@ -10082,11 +10114,11 @@
     </row>
     <row r="38" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>32</v>
@@ -10097,11 +10129,11 @@
     </row>
     <row r="39" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>32</v>
@@ -10112,11 +10144,11 @@
     </row>
     <row r="40" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>32</v>
@@ -10127,11 +10159,11 @@
     </row>
     <row r="41" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>32</v>
@@ -10142,11 +10174,11 @@
     </row>
     <row r="42" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>32</v>
@@ -10157,11 +10189,11 @@
     </row>
     <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>32</v>
@@ -10181,11 +10213,11 @@
     </row>
     <row r="45" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -10194,11 +10226,11 @@
     </row>
     <row r="46" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -10207,11 +10239,11 @@
     </row>
     <row r="47" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -10220,11 +10252,11 @@
     </row>
     <row r="48" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -10233,11 +10265,11 @@
     </row>
     <row r="49" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -10246,11 +10278,11 @@
     </row>
     <row r="50" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -10259,11 +10291,11 @@
     </row>
     <row r="51" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -10272,11 +10304,11 @@
     </row>
     <row r="52" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -10285,11 +10317,11 @@
     </row>
     <row r="53" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -10298,11 +10330,11 @@
     </row>
     <row r="54" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -10311,11 +10343,11 @@
     </row>
     <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -10324,11 +10356,11 @@
     </row>
     <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -10337,11 +10369,11 @@
     </row>
     <row r="57" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -10350,11 +10382,11 @@
     </row>
     <row r="58" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A58" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -10372,11 +10404,11 @@
     </row>
     <row r="60" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -10385,11 +10417,11 @@
     </row>
     <row r="61" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -10398,11 +10430,11 @@
     </row>
     <row r="62" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -10411,11 +10443,11 @@
     </row>
     <row r="63" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -10424,11 +10456,11 @@
     </row>
     <row r="64" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -10437,11 +10469,11 @@
     </row>
     <row r="65" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -10450,11 +10482,11 @@
     </row>
     <row r="66" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A66" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -10463,11 +10495,11 @@
     </row>
     <row r="67" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -10485,11 +10517,11 @@
     </row>
     <row r="69" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -10498,11 +10530,11 @@
     </row>
     <row r="70" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -10583,7 +10615,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -10593,7 +10625,7 @@
         <v>376</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -10608,7 +10640,7 @@
         <v>377</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -10623,7 +10655,7 @@
         <v>378</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -10644,10 +10676,10 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -10659,10 +10691,10 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -10674,10 +10706,10 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
@@ -10773,7 +10805,7 @@
         <v>352</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -10800,10 +10832,10 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -10815,10 +10847,10 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
@@ -10830,10 +10862,10 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
@@ -10845,10 +10877,10 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -11061,11 +11093,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -11076,11 +11108,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -11091,11 +11123,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -11106,11 +11138,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -11121,11 +11153,11 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -11145,11 +11177,11 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -11160,11 +11192,11 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -11175,11 +11207,11 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -11190,11 +11222,11 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -11205,11 +11237,11 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
@@ -11220,11 +11252,11 @@
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
@@ -11298,11 +11330,11 @@
     </row>
     <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
@@ -11313,11 +11345,11 @@
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
@@ -11328,11 +11360,11 @@
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
@@ -11343,11 +11375,11 @@
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -11358,11 +11390,11 @@
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
@@ -11373,11 +11405,11 @@
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -11388,11 +11420,11 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
@@ -11403,11 +11435,11 @@
     </row>
     <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
@@ -11418,11 +11450,11 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -11433,11 +11465,11 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -11448,11 +11480,11 @@
     </row>
     <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
@@ -11463,11 +11495,11 @@
     </row>
     <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
@@ -11478,11 +11510,11 @@
     </row>
     <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>33</v>
@@ -11493,11 +11525,11 @@
     </row>
     <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>33</v>
@@ -11508,11 +11540,11 @@
     </row>
     <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>33</v>
@@ -11523,11 +11555,11 @@
     </row>
     <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>33</v>
@@ -11538,11 +11570,11 @@
     </row>
     <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>33</v>
@@ -11553,11 +11585,11 @@
     </row>
     <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>33</v>
@@ -11568,11 +11600,11 @@
     </row>
     <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -11583,11 +11615,11 @@
     </row>
     <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>33</v>
@@ -11598,11 +11630,11 @@
     </row>
     <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>

--- a/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
+++ b/work_log/1_2014_1_28_编写测试用例/自动化测试项.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="7995" tabRatio="947" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16050" windowHeight="7995" tabRatio="947"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="35" r:id="rId1"/>
@@ -6942,6 +6942,13 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -6952,13 +6959,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -7266,8 +7266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7279,10 +7279,10 @@
       <c r="A1" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1610</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>1611</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -7300,7 +7300,7 @@
         <f>CPU!I1</f>
         <v>25</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <f>SUM(C2:C26)</f>
         <v>1196</v>
       </c>
@@ -9581,7 +9581,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10098,8 +10098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10208,7 +10208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -11463,8 +11463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24136,7 +24136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -27603,11 +27603,11 @@
     </row>
     <row r="25" spans="1:8" ht="35.25" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27628,8 +27628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28290,8 +28290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="D49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -29429,7 +29429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -29627,7 +29627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -29825,8 +29825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
